--- a/SkillsMonster.xlsx
+++ b/SkillsMonster.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4485" yWindow="795" windowWidth="28695" windowHeight="12735" tabRatio="908" firstSheet="9" activeTab="12"/>
+    <workbookView xWindow="4485" yWindow="795" windowWidth="28695" windowHeight="12735" tabRatio="908" firstSheet="9" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Mission1-ป่า" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="513">
   <si>
     <t>ระยะที่ใช้</t>
   </si>
@@ -875,45 +875,9 @@
     <t>Walk(เดิน)</t>
   </si>
   <si>
-    <r>
-      <t>Jump Down(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Cordia New"/>
-        <family val="2"/>
-      </rPr>
-      <t>กระโดดลงน้ำ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>Attack (กัด)</t>
-  </si>
-  <si>
-    <t>Attack(พ่นพิษ)</t>
-  </si>
-  <si>
     <t>จระเข้ Aligator</t>
   </si>
   <si>
-    <t>Attack(ปล่อยคลื่นเสียง)</t>
-  </si>
-  <si>
-    <t>Attack(ชาจพลังแล้วปล่อยออก)</t>
-  </si>
-  <si>
     <t>Shroom (Red)</t>
   </si>
   <si>
@@ -926,24 +890,9 @@
     <t>Ogre</t>
   </si>
   <si>
-    <t>Ultimate(คำราม)</t>
-  </si>
-  <si>
-    <t>Move Down(มุดลงลาวา)</t>
-  </si>
-  <si>
-    <t>Move Up(พุ่งขึ้นจากลาวา)</t>
-  </si>
-  <si>
     <t>Idle(บินอยู่กับที่)</t>
   </si>
   <si>
-    <t>Ultimate(เบ่งพลัง แล้วระเบิดออก)</t>
-  </si>
-  <si>
-    <t>Attack(ใช้ผ่ามือปล่อยพลัง)</t>
-  </si>
-  <si>
     <t>Treant</t>
   </si>
   <si>
@@ -1133,241 +1082,27 @@
     <t>1/2</t>
   </si>
   <si>
-    <t>Ultimate(ทุบพื้น)</t>
-  </si>
-  <si>
-    <t>Attack(เรียกหิน)</t>
-  </si>
-  <si>
-    <t>Ultimate(กระพรือปีกสร้างพายุ)</t>
-  </si>
-  <si>
-    <t>Attack(ปลดปล่อยพลัง)</t>
-  </si>
-  <si>
-    <t>Attack(หมุนควงสว่าน)</t>
-  </si>
-  <si>
-    <t>Attack(ทุบ)</t>
-  </si>
-  <si>
-    <t>Ultimate(ชาจพลังแล้วปล่อยจากกลางหลัง)</t>
-  </si>
-  <si>
-    <t>Ultimate(ชาจพลังจากนั้นก็ระเบิดออก)</t>
-  </si>
-  <si>
-    <t>ร่ายเวท หมุนหน้า</t>
-  </si>
-  <si>
-    <t>AttackA(ปล่อยน้ำแข็งจากพื้น)</t>
-  </si>
-  <si>
-    <t>AttackB(พ่นไอเย็น)</t>
-  </si>
-  <si>
-    <t>AttackA(พ่นพลังออกจากปาก)</t>
-  </si>
-  <si>
-    <t>AttackB(มุดดิน)</t>
-  </si>
-  <si>
-    <t>AttackC(พุ่งขึ้นมาจากพื้น)</t>
-  </si>
-  <si>
-    <t>AttackA(พ่นลาวาขึ้นฟ้า)</t>
-  </si>
-  <si>
-    <t>AttackB(ยิงลูกไฟใส่ผู้เล่น)</t>
-  </si>
-  <si>
-    <t>AttackA(ดีดกีต้า1ที)</t>
-  </si>
-  <si>
-    <t>AttackB(ดีดกีต้า หลายที)</t>
-  </si>
-  <si>
-    <r>
-      <t>AttackB (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Cordia New"/>
-        <family val="2"/>
-      </rPr>
-      <t>กระโดดทุบ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>AttackB(กระพือปีก เรียกลม)</t>
-  </si>
-  <si>
-    <t>AttackA(ชาจพลังแล้วระเบิดออก)</t>
-  </si>
-  <si>
-    <t>AttackC(พุ่งชน)</t>
-  </si>
-  <si>
-    <t>รวมธาตุ+โจมตี</t>
-  </si>
-  <si>
-    <t>Attack(เดินแล้วช๊กกัด)</t>
-  </si>
-  <si>
     <t>Idle(แขว่งแขน)</t>
   </si>
   <si>
     <t>Idle บิน</t>
   </si>
   <si>
-    <t>Attack(ยิงลำแสง เฉพาะสี)</t>
-  </si>
-  <si>
     <t>Idle ลอย</t>
   </si>
   <si>
     <t>Idle กระโดดแบบกบ</t>
   </si>
   <si>
-    <r>
-      <t>Jump Up</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Cordia New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Cordia New"/>
-        <family val="2"/>
-      </rPr>
-      <t>กระโดดขึ้นมาจากน้ำ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">) </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Ultimate(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Cordia New"/>
-        <family val="2"/>
-      </rPr>
-      <t>เรียกน้ำ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>) **ยกแขนแล้วกวักมือ</t>
-    </r>
-  </si>
-  <si>
-    <t>Attack(ยิงหินขึ้นฟ้า) ยกแขนขึ้นเหมือนยิงหิน</t>
-  </si>
-  <si>
-    <t>Attack บินหายไปข้างบน แล้วทำให้หินถล่ม</t>
-  </si>
-  <si>
-    <t>Ultimate(ดีดกีต้าแบบบ้าคลั่ง) ดีดไปด้วยแล้วกระโดดกระทืบเท้าด้วย</t>
-  </si>
-  <si>
-    <t>AttackA(หวดแขน) ต่อยซ้ายขวาต่อยลม</t>
-  </si>
-  <si>
-    <t>AttackB(ปาหิน) ทุบหินออกไปข้างหน้า จับสองมือ **ปั้นหินเพิ่ม</t>
-  </si>
-  <si>
     <t>Boss หาง</t>
   </si>
   <si>
     <t>Idle ตัวหางโบกสบัดหางเบาๆ</t>
   </si>
   <si>
-    <t>Attack สบัดหางแรงๆฟาดแรงๆ</t>
-  </si>
-  <si>
-    <t>Attack บินขึ้นสูงแล้วพุ่งลงมาต่อยพื้น (ท่าเดียวกับกบิล)</t>
-  </si>
-  <si>
-    <t>Attack(ทุบ) ทุบลงพื้น</t>
-  </si>
-  <si>
-    <t>Attack ยกแขนตัวเองฟาดต่อยพุงตัวเอง ซ้าย-ขวา</t>
-  </si>
-  <si>
-    <t>Attack(หมุนควงสว่าน) เหมือนกบิล</t>
-  </si>
-  <si>
-    <t>Ultimate(กระพรือปีกสร้างพายุ) เหมือนกบิล</t>
-  </si>
-  <si>
-    <t>AttackD(ข่วน)</t>
-  </si>
-  <si>
-    <t>Stomp กระทืบพื้นเหมือนบอสด่าน1</t>
-  </si>
-  <si>
     <t>Idle โยกมาข้างหน้าเบี่ยงซ้าย ขวา</t>
   </si>
   <si>
-    <t>Attack(ร่ายมนตร์เรียกเถาวัลย์) ยกแขนขึ้นสองข้าง</t>
-  </si>
-  <si>
-    <t>Attack(เรียกลิ่มจากพื้น)</t>
-  </si>
-  <si>
-    <t>Attack(ยกแขนขึ้น ยิงหนาม)</t>
-  </si>
-  <si>
-    <t>Die ตาย</t>
-  </si>
-  <si>
     <t>สร้างคลื่นเสียง</t>
   </si>
   <si>
@@ -1660,24 +1395,201 @@
   </si>
   <si>
     <t>Attack</t>
+  </si>
+  <si>
+    <t>Ultimate(เรียกน้ำ) **ยกแขนแล้วกวักมือ</t>
+  </si>
+  <si>
+    <t>Jump pounded (กระโดดทุบ)</t>
+  </si>
+  <si>
+    <t>Jump Down(กระโดดลงน้ำ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jump Up (กระโดดขึ้นมาจากน้ำ) </t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>Attackbite (กัด)</t>
+  </si>
+  <si>
+    <t>walk</t>
+  </si>
+  <si>
+    <t>poison (พ่นพิษ)</t>
+  </si>
+  <si>
+    <t>walkBite(เดินแล้วฉกกัด)</t>
+  </si>
+  <si>
+    <t>UltimateSmash(ทุบพื้น)</t>
+  </si>
+  <si>
+    <t>AttackCall(เรียกหิน)</t>
+  </si>
+  <si>
+    <t>AttackShoot(ยิงหินขึ้นฟ้า) ยกแขนขึ้นเหมือนยิงหิน</t>
+  </si>
+  <si>
+    <t>Ultimatestorm (กระพรือปีกสร้างพายุ)</t>
+  </si>
+  <si>
+    <t>AttackHit บินขึ้นสูงแล้วพุ่งลงมาต่อยพื้น (ท่าเดียวกับกบิล)</t>
+  </si>
+  <si>
+    <t>AttackDischarge(ปลดปล่อยพลัง)</t>
+  </si>
+  <si>
+    <t>AttackSwirl(หมุนควงสว่าน)</t>
+  </si>
+  <si>
+    <t>Attackdischarge(ปล่อยคลื่นเสียง)</t>
+  </si>
+  <si>
+    <t>AttackCharge(ชาจพลังแล้วปล่อยออก)</t>
+  </si>
+  <si>
+    <t>AttackStone บินหายไปข้างบน แล้วทำให้หินถล่ม</t>
+  </si>
+  <si>
+    <t>walk (Idle)</t>
+  </si>
+  <si>
+    <t>Attackshoot(ยิงลำแสง เฉพาะสี)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die </t>
+  </si>
+  <si>
+    <t>UltimateFrantic(ดีดกีต้าแบบบ้าคลั่ง) ดีดไปด้วยแล้วกระโดดกระทืบเท้าด้วย</t>
+  </si>
+  <si>
+    <t>Attack1strum(ดีดกีต้า1ที)</t>
+  </si>
+  <si>
+    <t>AttackMoreStrum (ดีดกีต้า หลายที)</t>
+  </si>
+  <si>
+    <t>AttackHit(หวดแขน) ต่อยซ้ายขวาต่อยลม</t>
+  </si>
+  <si>
+    <t>AttackLapidate(ปาหิน) ทุบหินออกไปข้างหน้า จับสองมือ **ปั้นหินเพิ่ม</t>
+  </si>
+  <si>
+    <t>Damage</t>
+  </si>
+  <si>
+    <t>UltimateRoar (คำราม)</t>
+  </si>
+  <si>
+    <t>Attacklava (พ่นลาวาขึ้นฟ้า)</t>
+  </si>
+  <si>
+    <t>AttackShoot (ยิงลูกไฟใส่ผู้เล่น)</t>
+  </si>
+  <si>
+    <t>Move Down (มุดลงลาวา)</t>
+  </si>
+  <si>
+    <t>Move Up (พุ่งขึ้นจากลาวา)</t>
+  </si>
+  <si>
+    <t>AttackHack สบัดหางแรงๆฟาดแรงๆ</t>
+  </si>
+  <si>
+    <t>UltimateCharge (ชาจพลังแล้วปล่อยจากกลางหลัง)</t>
+  </si>
+  <si>
+    <t>AttackSquirt(พ่นพลังออกจากปาก)</t>
+  </si>
+  <si>
+    <t>Move Down(มุดดิน)</t>
+  </si>
+  <si>
+    <t>Move Up (พุ่งขึ้นมาจากพื้น)</t>
+  </si>
+  <si>
+    <t>AttackBreak(ทุบ) ทุบลงพื้น</t>
+  </si>
+  <si>
+    <t>AttackHit ยกแขนตัวเองฟาดต่อยพุงตัวเอง ซ้าย-ขวา</t>
+  </si>
+  <si>
+    <t>เฟิร์น / เก่ง</t>
+  </si>
+  <si>
+    <t>UltimateStorm(กระพรือปีกสร้างพายุ) เหมือนกบิล</t>
+  </si>
+  <si>
+    <t>AttackWind(กระพือปีก เรียกลม)</t>
+  </si>
+  <si>
+    <t>AttackSwirl (หมุนควงสว่าน)เหมือนกบิล</t>
+  </si>
+  <si>
+    <t>AttackStomp กระทืบพื้นเหมือนบอสด่าน1</t>
+  </si>
+  <si>
+    <t>AttackCharge(ชาจพลังแล้วระเบิดออก)</t>
+  </si>
+  <si>
+    <t>AttackDash (พุ่งชน)</t>
+  </si>
+  <si>
+    <t>AttackScratch (ข่วน)</t>
+  </si>
+  <si>
+    <t>UltimateCharge   (ชาจพลังจากนั้นก็ระเบิดออก)</t>
+  </si>
+  <si>
+    <t>AttackIce   (ปล่อยน้ำแข็งจากพื้น)</t>
+  </si>
+  <si>
+    <t>AttackSquirt  (พ่นไอเย็น)</t>
+  </si>
+  <si>
+    <t>AttackSmash (ทุบ)</t>
+  </si>
+  <si>
+    <t>UltimateCharge  (เบ่งพลัง แล้วระเบิดออก)</t>
+  </si>
+  <si>
+    <t>AttackPower (ใช้ผ่ามือปล่อยพลัง)</t>
+  </si>
+  <si>
+    <t>AttackCast (ร่ายมนตร์เรียกเถาวัลย์) ยกแขนขึ้นสองข้าง</t>
+  </si>
+  <si>
+    <t>AttackWedge (เรียกลิ่มจากพื้น)</t>
+  </si>
+  <si>
+    <t>AttackPricker  (ยกแขนขึ้น ยิงหนาม)</t>
+  </si>
+  <si>
+    <t>AttackCast  ร่ายเวท หมุนหน้า</t>
+  </si>
+  <si>
+    <t>AttackCharge  ฟื้นพลัง</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1685,7 +1597,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1706,7 +1618,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1714,7 +1626,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1722,7 +1634,7 @@
       <b/>
       <sz val="16"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1736,15 +1648,9 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Cordia New"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="26">
@@ -2684,7 +2590,7 @@
     <xf numFmtId="0" fontId="5" fillId="15" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="51" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="323">
+  <cellXfs count="324">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2990,9 +2896,6 @@
     <xf numFmtId="0" fontId="7" fillId="16" borderId="51" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3428,6 +3331,114 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3539,109 +3550,7 @@
     <xf numFmtId="0" fontId="2" fillId="14" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6002,46 +5911,46 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" customWidth="1"/>
-    <col min="9" max="9" width="21.140625" customWidth="1"/>
-    <col min="10" max="10" width="21.85546875" customWidth="1"/>
-    <col min="11" max="11" width="20.5703125" customWidth="1"/>
-    <col min="13" max="13" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.25" customWidth="1"/>
+    <col min="2" max="2" width="17.25" customWidth="1"/>
+    <col min="3" max="3" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="17.125" customWidth="1"/>
+    <col min="5" max="5" width="18.375" customWidth="1"/>
+    <col min="6" max="6" width="16.125" customWidth="1"/>
+    <col min="7" max="7" width="16.625" customWidth="1"/>
+    <col min="8" max="8" width="18.875" customWidth="1"/>
+    <col min="9" max="9" width="21.125" customWidth="1"/>
+    <col min="10" max="10" width="21.875" customWidth="1"/>
+    <col min="11" max="11" width="20.625" customWidth="1"/>
+    <col min="13" max="13" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="251" t="s">
+      <c r="B1" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="252"/>
-      <c r="D1" s="252"/>
-      <c r="E1" s="252"/>
-      <c r="F1" s="252"/>
-      <c r="G1" s="252"/>
-      <c r="H1" s="252"/>
-      <c r="I1" s="254" t="s">
+      <c r="C1" s="287"/>
+      <c r="D1" s="287"/>
+      <c r="E1" s="287"/>
+      <c r="F1" s="287"/>
+      <c r="G1" s="287"/>
+      <c r="H1" s="287"/>
+      <c r="I1" s="289" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="256" t="s">
+      <c r="J1" s="291" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="258" t="s">
+      <c r="K1" s="293" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>0</v>
       </c>
@@ -6064,11 +5973,11 @@
       <c r="H2" s="98" t="s">
         <v>199</v>
       </c>
-      <c r="I2" s="255"/>
-      <c r="J2" s="257"/>
-      <c r="K2" s="259"/>
-    </row>
-    <row r="3" spans="1:18" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I2" s="290"/>
+      <c r="J2" s="292"/>
+      <c r="K2" s="294"/>
+    </row>
+    <row r="3" spans="1:18" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -6093,7 +6002,7 @@
       </c>
       <c r="K3" s="40"/>
     </row>
-    <row r="4" spans="1:18" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>6</v>
       </c>
@@ -6118,7 +6027,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:18" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>7</v>
       </c>
@@ -6141,7 +6050,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>8</v>
       </c>
@@ -6166,7 +6075,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:18" ht="54" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="54" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
         <v>9</v>
       </c>
@@ -6217,7 +6126,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="102" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="102" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
         <v>10</v>
       </c>
@@ -6260,34 +6169,34 @@
         <v>213</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="87.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="87.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="63" t="s">
-        <v>462</v>
+        <v>408</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>414</v>
+        <v>360</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>463</v>
+        <v>409</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>440</v>
+        <v>386</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>456</v>
+        <v>402</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="13" t="s">
-        <v>439</v>
+        <v>385</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>208</v>
       </c>
@@ -6320,25 +6229,25 @@
         <v>207</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="253" t="s">
+      <c r="B11" s="288" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="253"/>
-      <c r="D11" s="253"/>
-      <c r="E11" s="253"/>
-      <c r="F11" s="253"/>
-      <c r="G11" s="253"/>
-      <c r="H11" s="253"/>
-      <c r="I11" s="253"/>
-      <c r="J11" s="253"/>
-      <c r="K11" s="253"/>
-    </row>
-    <row r="12" spans="1:18" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:18" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="288"/>
+      <c r="D11" s="288"/>
+      <c r="E11" s="288"/>
+      <c r="F11" s="288"/>
+      <c r="G11" s="288"/>
+      <c r="H11" s="288"/>
+      <c r="I11" s="288"/>
+      <c r="J11" s="288"/>
+      <c r="K11" s="288"/>
+    </row>
+    <row r="12" spans="1:18" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:18" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>23</v>
       </c>
@@ -6348,16 +6257,16 @@
       <c r="C13" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="260" t="s">
+      <c r="D13" s="295" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="261"/>
-      <c r="F13" s="268" t="s">
+      <c r="E13" s="296"/>
+      <c r="F13" s="303" t="s">
         <v>72</v>
       </c>
-      <c r="G13" s="269"/>
-    </row>
-    <row r="14" spans="1:18" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G13" s="304"/>
+    </row>
+    <row r="14" spans="1:18" ht="116.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
         <v>48</v>
       </c>
@@ -6365,12 +6274,12 @@
       <c r="C14" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="262"/>
-      <c r="E14" s="263"/>
-      <c r="F14" s="270"/>
-      <c r="G14" s="271"/>
-    </row>
-    <row r="15" spans="1:18" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="297"/>
+      <c r="E14" s="298"/>
+      <c r="F14" s="305"/>
+      <c r="G14" s="306"/>
+    </row>
+    <row r="15" spans="1:18" ht="135.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="22" t="s">
         <v>49</v>
       </c>
@@ -6378,12 +6287,12 @@
       <c r="C15" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="264"/>
-      <c r="E15" s="265"/>
-      <c r="F15" s="270"/>
-      <c r="G15" s="271"/>
-    </row>
-    <row r="16" spans="1:18" ht="130.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="299"/>
+      <c r="E15" s="300"/>
+      <c r="F15" s="305"/>
+      <c r="G15" s="306"/>
+    </row>
+    <row r="16" spans="1:18" ht="130.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
         <v>50</v>
       </c>
@@ -6391,10 +6300,10 @@
       <c r="C16" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="266"/>
-      <c r="E16" s="267"/>
-      <c r="F16" s="272"/>
-      <c r="G16" s="273"/>
+      <c r="D16" s="301"/>
+      <c r="E16" s="302"/>
+      <c r="F16" s="307"/>
+      <c r="G16" s="308"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -6426,48 +6335,48 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" customWidth="1"/>
+    <col min="1" max="1" width="20.625" customWidth="1"/>
+    <col min="2" max="2" width="25.625" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.75" customWidth="1"/>
+    <col min="5" max="5" width="19.75" customWidth="1"/>
+    <col min="6" max="6" width="19.875" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" customWidth="1"/>
-    <col min="10" max="10" width="22.7109375" customWidth="1"/>
-    <col min="11" max="11" width="23.7109375" customWidth="1"/>
+    <col min="8" max="8" width="20.75" customWidth="1"/>
+    <col min="9" max="9" width="21.875" customWidth="1"/>
+    <col min="10" max="10" width="22.75" customWidth="1"/>
+    <col min="11" max="11" width="23.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="251" t="s">
+      <c r="B1" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="252"/>
-      <c r="D1" s="252"/>
-      <c r="E1" s="252"/>
-      <c r="F1" s="252"/>
-      <c r="G1" s="252"/>
-      <c r="H1" s="252"/>
+      <c r="C1" s="287"/>
+      <c r="D1" s="287"/>
+      <c r="E1" s="287"/>
+      <c r="F1" s="287"/>
+      <c r="G1" s="287"/>
+      <c r="H1" s="287"/>
       <c r="I1" s="51"/>
       <c r="J1" s="51"/>
       <c r="K1" s="51"/>
-      <c r="L1" s="274" t="s">
+      <c r="L1" s="309" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="276" t="s">
+      <c r="M1" s="311" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="278" t="s">
+      <c r="N1" s="313" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>0</v>
       </c>
@@ -6491,11 +6400,11 @@
       <c r="I2" s="3"/>
       <c r="J2" s="37"/>
       <c r="K2" s="37"/>
-      <c r="L2" s="275"/>
-      <c r="M2" s="277"/>
-      <c r="N2" s="279"/>
-    </row>
-    <row r="3" spans="1:14" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L2" s="310"/>
+      <c r="M2" s="312"/>
+      <c r="N2" s="314"/>
+    </row>
+    <row r="3" spans="1:14" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -6523,7 +6432,7 @@
       </c>
       <c r="N3" s="40"/>
     </row>
-    <row r="4" spans="1:14" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>6</v>
       </c>
@@ -6549,7 +6458,7 @@
       <c r="M4" s="5"/>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="1:14" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>7</v>
       </c>
@@ -6573,7 +6482,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>8</v>
       </c>
@@ -6597,7 +6506,7 @@
       <c r="M6" s="5"/>
       <c r="N6" s="6"/>
     </row>
-    <row r="7" spans="1:14" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
         <v>9</v>
       </c>
@@ -6631,7 +6540,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
         <v>10</v>
       </c>
@@ -6643,7 +6552,7 @@
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11" t="s">
-        <v>464</v>
+        <v>410</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>157</v>
@@ -6659,25 +6568,25 @@
       <c r="M8" s="5"/>
       <c r="N8" s="6"/>
     </row>
-    <row r="9" spans="1:14" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="63" t="s">
-        <v>426</v>
+        <v>372</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>421</v>
+        <v>367</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11" t="s">
-        <v>465</v>
+        <v>411</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>425</v>
+        <v>371</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>414</v>
+        <v>360</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
@@ -6689,43 +6598,43 @@
       </c>
       <c r="N9" s="6"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>476</v>
+        <v>422</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>476</v>
+        <v>422</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>495</v>
+        <v>441</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>494</v>
+        <v>440</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="253"/>
-      <c r="C11" s="253"/>
-      <c r="D11" s="253"/>
-      <c r="E11" s="253"/>
-      <c r="F11" s="253"/>
-      <c r="G11" s="253"/>
-      <c r="H11" s="253"/>
-      <c r="I11" s="253"/>
-      <c r="J11" s="253"/>
-      <c r="K11" s="253"/>
-    </row>
-    <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="288"/>
+      <c r="C11" s="288"/>
+      <c r="D11" s="288"/>
+      <c r="E11" s="288"/>
+      <c r="F11" s="288"/>
+      <c r="G11" s="288"/>
+      <c r="H11" s="288"/>
+      <c r="I11" s="288"/>
+      <c r="J11" s="288"/>
+      <c r="K11" s="288"/>
+    </row>
+    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>23</v>
       </c>
@@ -6735,12 +6644,12 @@
       <c r="C13" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="260" t="s">
+      <c r="D13" s="295" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="261"/>
-    </row>
-    <row r="14" spans="1:14" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="296"/>
+    </row>
+    <row r="14" spans="1:14" ht="130.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
         <v>56</v>
       </c>
@@ -6750,8 +6659,8 @@
       <c r="C14" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="262"/>
-      <c r="E14" s="263"/>
+      <c r="D14" s="297"/>
+      <c r="E14" s="298"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -6777,78 +6686,78 @@
       <selection activeCell="I2" sqref="I2:I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" customWidth="1"/>
+    <col min="1" max="1" width="20.625" customWidth="1"/>
+    <col min="2" max="2" width="25.625" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.75" customWidth="1"/>
+    <col min="5" max="5" width="19.75" customWidth="1"/>
+    <col min="6" max="6" width="19.875" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" customWidth="1"/>
-    <col min="10" max="10" width="22.7109375" customWidth="1"/>
-    <col min="11" max="11" width="23.7109375" customWidth="1"/>
+    <col min="8" max="8" width="20.75" customWidth="1"/>
+    <col min="9" max="9" width="21.875" customWidth="1"/>
+    <col min="10" max="10" width="22.75" customWidth="1"/>
+    <col min="11" max="11" width="23.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="251" t="s">
+      <c r="B1" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="252"/>
-      <c r="D1" s="252"/>
-      <c r="E1" s="252"/>
-      <c r="F1" s="252"/>
-      <c r="G1" s="252"/>
-      <c r="H1" s="252"/>
+      <c r="C1" s="287"/>
+      <c r="D1" s="287"/>
+      <c r="E1" s="287"/>
+      <c r="F1" s="287"/>
+      <c r="G1" s="287"/>
+      <c r="H1" s="287"/>
       <c r="I1" s="51"/>
       <c r="J1" s="51"/>
       <c r="K1" s="51"/>
-      <c r="L1" s="274" t="s">
+      <c r="L1" s="309" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="276" t="s">
+      <c r="M1" s="311" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="278" t="s">
+      <c r="N1" s="313" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="37" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="J2" s="52" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="K2" s="52"/>
-      <c r="L2" s="275"/>
-      <c r="M2" s="277"/>
-      <c r="N2" s="279"/>
-    </row>
-    <row r="3" spans="1:14" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L2" s="310"/>
+      <c r="M2" s="312"/>
+      <c r="N2" s="314"/>
+    </row>
+    <row r="3" spans="1:14" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -6870,7 +6779,7 @@
       </c>
       <c r="N3" s="40"/>
     </row>
-    <row r="4" spans="1:14" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>6</v>
       </c>
@@ -6883,7 +6792,7 @@
       <c r="H4" s="7"/>
       <c r="I4" s="4"/>
       <c r="J4" s="53" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="K4" s="53"/>
       <c r="L4" s="4" t="s">
@@ -6892,7 +6801,7 @@
       <c r="M4" s="5"/>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="1:14" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>7</v>
       </c>
@@ -6905,7 +6814,7 @@
       <c r="H5" s="7"/>
       <c r="I5" s="4"/>
       <c r="J5" s="65" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="K5" s="57"/>
       <c r="L5" s="5"/>
@@ -6914,7 +6823,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>8</v>
       </c>
@@ -6922,9 +6831,9 @@
         <v>5</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="D6" s="226"/>
+        <v>339</v>
+      </c>
+      <c r="D6" s="225"/>
       <c r="E6" s="5">
         <v>1</v>
       </c>
@@ -6940,7 +6849,7 @@
       <c r="M6" s="5"/>
       <c r="N6" s="6"/>
     </row>
-    <row r="7" spans="1:14" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
         <v>9</v>
       </c>
@@ -6953,7 +6862,7 @@
       <c r="H7" s="12"/>
       <c r="I7" s="9"/>
       <c r="J7" s="55" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="K7" s="55"/>
       <c r="L7" s="8" t="s">
@@ -6966,57 +6875,57 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="63" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="I8" s="226" t="s">
+        <v>341</v>
+      </c>
+      <c r="J8" s="227" t="s">
         <v>348</v>
-      </c>
-      <c r="I8" s="227" t="s">
-        <v>351</v>
-      </c>
-      <c r="J8" s="228" t="s">
-        <v>358</v>
       </c>
       <c r="K8" s="56"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="6"/>
     </row>
-    <row r="9" spans="1:14" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="63" t="s">
-        <v>422</v>
+        <v>368</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>423</v>
+        <v>369</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11" t="s">
-        <v>424</v>
+        <v>370</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="13" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="J9" s="56"/>
       <c r="K9" s="56"/>
@@ -7026,17 +6935,17 @@
       </c>
       <c r="N9" s="6"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>489</v>
+        <v>435</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>496</v>
+        <v>442</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>488</v>
+        <v>434</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -7045,23 +6954,23 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="253"/>
-      <c r="C11" s="253"/>
-      <c r="D11" s="253"/>
-      <c r="E11" s="253"/>
-      <c r="F11" s="253"/>
-      <c r="G11" s="253"/>
-      <c r="H11" s="253"/>
-      <c r="I11" s="253"/>
-      <c r="J11" s="253"/>
-      <c r="K11" s="253"/>
-    </row>
-    <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="288"/>
+      <c r="C11" s="288"/>
+      <c r="D11" s="288"/>
+      <c r="E11" s="288"/>
+      <c r="F11" s="288"/>
+      <c r="G11" s="288"/>
+      <c r="H11" s="288"/>
+      <c r="I11" s="288"/>
+      <c r="J11" s="288"/>
+      <c r="K11" s="288"/>
+    </row>
+    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>23</v>
       </c>
@@ -7071,21 +6980,21 @@
       <c r="C13" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="260" t="s">
+      <c r="D13" s="295" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="261"/>
-    </row>
-    <row r="14" spans="1:14" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="296"/>
+    </row>
+    <row r="14" spans="1:14" ht="168.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
         <v>54</v>
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="21"/>
-      <c r="D14" s="262"/>
-      <c r="E14" s="263"/>
-    </row>
-    <row r="15" spans="1:14" ht="164.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="297"/>
+      <c r="E14" s="298"/>
+    </row>
+    <row r="15" spans="1:14" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="22" t="s">
         <v>55</v>
       </c>
@@ -7093,8 +7002,8 @@
       <c r="C15" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="264"/>
-      <c r="E15" s="265"/>
+      <c r="D15" s="299"/>
+      <c r="E15" s="300"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -7121,48 +7030,48 @@
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" customWidth="1"/>
+    <col min="1" max="1" width="20.625" customWidth="1"/>
+    <col min="2" max="2" width="25.625" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.75" customWidth="1"/>
+    <col min="5" max="5" width="19.75" customWidth="1"/>
+    <col min="6" max="6" width="19.875" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" customWidth="1"/>
-    <col min="10" max="10" width="22.7109375" customWidth="1"/>
-    <col min="11" max="11" width="23.7109375" customWidth="1"/>
+    <col min="8" max="8" width="20.75" customWidth="1"/>
+    <col min="9" max="9" width="21.875" customWidth="1"/>
+    <col min="10" max="10" width="22.75" customWidth="1"/>
+    <col min="11" max="11" width="23.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="251" t="s">
+      <c r="B1" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="252"/>
-      <c r="D1" s="252"/>
-      <c r="E1" s="252"/>
-      <c r="F1" s="252"/>
-      <c r="G1" s="252"/>
-      <c r="H1" s="252"/>
+      <c r="C1" s="287"/>
+      <c r="D1" s="287"/>
+      <c r="E1" s="287"/>
+      <c r="F1" s="287"/>
+      <c r="G1" s="287"/>
+      <c r="H1" s="287"/>
       <c r="I1" s="51"/>
       <c r="J1" s="51"/>
       <c r="K1" s="51"/>
-      <c r="L1" s="274" t="s">
+      <c r="L1" s="309" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="276" t="s">
+      <c r="M1" s="311" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="278" t="s">
+      <c r="N1" s="313" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>0</v>
       </c>
@@ -7192,11 +7101,11 @@
       <c r="K2" s="52" t="s">
         <v>198</v>
       </c>
-      <c r="L2" s="275"/>
-      <c r="M2" s="277"/>
-      <c r="N2" s="279"/>
-    </row>
-    <row r="3" spans="1:14" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L2" s="310"/>
+      <c r="M2" s="312"/>
+      <c r="N2" s="314"/>
+    </row>
+    <row r="3" spans="1:14" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -7226,7 +7135,7 @@
       </c>
       <c r="N3" s="40"/>
     </row>
-    <row r="4" spans="1:14" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>6</v>
       </c>
@@ -7258,7 +7167,7 @@
       <c r="M4" s="5"/>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="1:14" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>7</v>
       </c>
@@ -7282,7 +7191,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>8</v>
       </c>
@@ -7318,7 +7227,7 @@
       <c r="M6" s="5"/>
       <c r="N6" s="6"/>
     </row>
-    <row r="7" spans="1:14" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
         <v>9</v>
       </c>
@@ -7360,7 +7269,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
         <v>10</v>
       </c>
@@ -7391,27 +7300,27 @@
       <c r="M8" s="5"/>
       <c r="N8" s="6"/>
     </row>
-    <row r="9" spans="1:14" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="63"/>
       <c r="C9" s="11" t="s">
-        <v>412</v>
+        <v>358</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>413</v>
+        <v>359</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="11" t="s">
-        <v>411</v>
+        <v>357</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="13" t="s">
-        <v>415</v>
+        <v>361</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>416</v>
+        <v>362</v>
       </c>
       <c r="J9" s="71"/>
       <c r="K9" s="56"/>
@@ -7421,7 +7330,7 @@
       </c>
       <c r="N9" s="6"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -7434,23 +7343,23 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="253"/>
-      <c r="C11" s="253"/>
-      <c r="D11" s="253"/>
-      <c r="E11" s="253"/>
-      <c r="F11" s="253"/>
-      <c r="G11" s="253"/>
-      <c r="H11" s="253"/>
-      <c r="I11" s="253"/>
-      <c r="J11" s="253"/>
-      <c r="K11" s="253"/>
-    </row>
-    <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="288"/>
+      <c r="C11" s="288"/>
+      <c r="D11" s="288"/>
+      <c r="E11" s="288"/>
+      <c r="F11" s="288"/>
+      <c r="G11" s="288"/>
+      <c r="H11" s="288"/>
+      <c r="I11" s="288"/>
+      <c r="J11" s="288"/>
+      <c r="K11" s="288"/>
+    </row>
+    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>23</v>
       </c>
@@ -7460,12 +7369,12 @@
       <c r="C13" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="260" t="s">
+      <c r="D13" s="295" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="261"/>
-    </row>
-    <row r="14" spans="1:14" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="296"/>
+    </row>
+    <row r="14" spans="1:14" ht="123" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
         <v>53</v>
       </c>
@@ -7473,13 +7382,13 @@
       <c r="C14" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="262"/>
-      <c r="E14" s="263"/>
+      <c r="D14" s="297"/>
+      <c r="E14" s="298"/>
       <c r="H14" s="79" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="163.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="163.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="22" t="s">
         <v>28</v>
       </c>
@@ -7487,8 +7396,8 @@
       <c r="C15" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="264"/>
-      <c r="E15" s="265"/>
+      <c r="D15" s="299"/>
+      <c r="E15" s="300"/>
       <c r="H15" s="79" t="s">
         <v>162</v>
       </c>
@@ -7514,43 +7423,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" customWidth="1"/>
+    <col min="1" max="1" width="20.625" customWidth="1"/>
+    <col min="2" max="2" width="25.625" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.75" customWidth="1"/>
+    <col min="5" max="5" width="19.75" customWidth="1"/>
+    <col min="6" max="6" width="19.875" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" customWidth="1"/>
-    <col min="10" max="10" width="22.7109375" customWidth="1"/>
-    <col min="11" max="11" width="23.7109375" customWidth="1"/>
+    <col min="8" max="8" width="20.75" customWidth="1"/>
+    <col min="9" max="9" width="21.875" customWidth="1"/>
+    <col min="10" max="10" width="22.75" customWidth="1"/>
+    <col min="11" max="11" width="23.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="251" t="s">
+      <c r="B1" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="252"/>
-      <c r="D1" s="252"/>
-      <c r="E1" s="252"/>
-      <c r="F1" s="252"/>
-      <c r="G1" s="252"/>
-      <c r="H1" s="252"/>
+      <c r="C1" s="287"/>
+      <c r="D1" s="287"/>
+      <c r="E1" s="287"/>
+      <c r="F1" s="287"/>
+      <c r="G1" s="287"/>
+      <c r="H1" s="287"/>
       <c r="I1" s="51"/>
       <c r="J1" s="51"/>
       <c r="K1" s="51"/>
     </row>
-    <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>0</v>
       </c>
@@ -7573,7 +7482,7 @@
         <v>179</v>
       </c>
       <c r="H2" s="86" t="s">
-        <v>503</v>
+        <v>449</v>
       </c>
       <c r="I2" s="66" t="s">
         <v>180</v>
@@ -7585,7 +7494,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>8</v>
       </c>
@@ -7618,7 +7527,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>9</v>
       </c>
@@ -7653,7 +7562,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
         <v>10</v>
       </c>
@@ -7676,26 +7585,26 @@
         <v>185</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>417</v>
+        <v>363</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>418</v>
+        <v>364</v>
       </c>
       <c r="D6" s="71" t="s">
-        <v>415</v>
+        <v>361</v>
       </c>
       <c r="E6" s="71" t="s">
-        <v>419</v>
+        <v>365</v>
       </c>
       <c r="F6" s="71"/>
       <c r="G6" s="71"/>
       <c r="H6" s="11" t="s">
-        <v>420</v>
+        <v>366</v>
       </c>
       <c r="I6" s="71" t="s">
         <v>183</v>
@@ -7707,56 +7616,56 @@
         <v>186</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>497</v>
+        <v>443</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>498</v>
+        <v>444</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>499</v>
+        <v>445</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>500</v>
+        <v>446</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>501</v>
+        <v>447</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>502</v>
+        <v>448</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>504</v>
+        <v>450</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>505</v>
+        <v>451</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>506</v>
+        <v>452</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="253"/>
-      <c r="C8" s="253"/>
-      <c r="D8" s="253"/>
-      <c r="E8" s="253"/>
-      <c r="F8" s="253"/>
-      <c r="G8" s="253"/>
-      <c r="H8" s="253"/>
-      <c r="I8" s="253"/>
-      <c r="J8" s="253"/>
-      <c r="K8" s="253"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:11" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="288"/>
+      <c r="C8" s="288"/>
+      <c r="D8" s="288"/>
+      <c r="E8" s="288"/>
+      <c r="F8" s="288"/>
+      <c r="G8" s="288"/>
+      <c r="H8" s="288"/>
+      <c r="I8" s="288"/>
+      <c r="J8" s="288"/>
+      <c r="K8" s="288"/>
+    </row>
+    <row r="9" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:11" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>23</v>
       </c>
@@ -7766,12 +7675,12 @@
       <c r="C10" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="260" t="s">
+      <c r="D10" s="295" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="261"/>
-    </row>
-    <row r="11" spans="1:11" ht="180.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="296"/>
+    </row>
+    <row r="11" spans="1:11" ht="180.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
         <v>52</v>
       </c>
@@ -7779,8 +7688,8 @@
       <c r="C11" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="262"/>
-      <c r="E11" s="263"/>
+      <c r="D11" s="297"/>
+      <c r="E11" s="298"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -7798,1747 +7707,1878 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W42"/>
   <sheetViews>
-    <sheetView topLeftCell="E31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M42" sqref="A1:V42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="25.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.875" customWidth="1"/>
+    <col min="3" max="3" width="9.25" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.25" customWidth="1"/>
+    <col min="6" max="6" width="13.875" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" customWidth="1"/>
-    <col min="11" max="11" width="25.85546875" customWidth="1"/>
+    <col min="10" max="10" width="18.25" customWidth="1"/>
+    <col min="11" max="11" width="25.875" customWidth="1"/>
     <col min="12" max="12" width="37" customWidth="1"/>
-    <col min="13" max="13" width="36.85546875" customWidth="1"/>
-    <col min="14" max="14" width="28.7109375" customWidth="1"/>
-    <col min="15" max="15" width="40.42578125" customWidth="1"/>
-    <col min="16" max="16" width="31.5703125" customWidth="1"/>
-    <col min="17" max="17" width="39.5703125" customWidth="1"/>
-    <col min="18" max="18" width="33.42578125" customWidth="1"/>
-    <col min="19" max="19" width="32.85546875" customWidth="1"/>
-    <col min="20" max="20" width="21.28515625" customWidth="1"/>
+    <col min="13" max="13" width="36.875" customWidth="1"/>
+    <col min="14" max="14" width="28.75" customWidth="1"/>
+    <col min="15" max="15" width="40.375" customWidth="1"/>
+    <col min="16" max="16" width="31.625" customWidth="1"/>
+    <col min="17" max="17" width="39.625" customWidth="1"/>
+    <col min="18" max="18" width="33.375" customWidth="1"/>
+    <col min="19" max="19" width="32.875" customWidth="1"/>
+    <col min="20" max="20" width="21.25" customWidth="1"/>
     <col min="21" max="21" width="19" customWidth="1"/>
-    <col min="22" max="22" width="16.28515625" customWidth="1"/>
-    <col min="23" max="23" width="19.7109375" customWidth="1"/>
+    <col min="22" max="22" width="16.25" customWidth="1"/>
+    <col min="23" max="23" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="288" t="s">
+    <row r="1" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="250" t="s">
         <v>260</v>
       </c>
-      <c r="B1" s="288" t="s">
-        <v>302</v>
-      </c>
-      <c r="C1" s="313" t="s">
+      <c r="B1" s="250" t="s">
+        <v>292</v>
+      </c>
+      <c r="C1" s="274" t="s">
         <v>261</v>
       </c>
-      <c r="D1" s="314"/>
-      <c r="E1" s="315"/>
-      <c r="F1" s="288" t="s">
+      <c r="D1" s="275"/>
+      <c r="E1" s="276"/>
+      <c r="F1" s="250" t="s">
         <v>229</v>
       </c>
-      <c r="G1" s="288" t="s">
+      <c r="G1" s="250" t="s">
         <v>230</v>
       </c>
-      <c r="H1" s="288" t="s">
+      <c r="H1" s="250" t="s">
         <v>231</v>
       </c>
-      <c r="I1" s="319" t="s">
+      <c r="I1" s="280" t="s">
         <v>266</v>
       </c>
-      <c r="J1" s="298" t="s">
+      <c r="J1" s="259" t="s">
         <v>259</v>
       </c>
-      <c r="K1" s="299"/>
-      <c r="L1" s="299"/>
-      <c r="M1" s="299"/>
-      <c r="N1" s="299"/>
-      <c r="O1" s="299"/>
-      <c r="P1" s="299"/>
-      <c r="Q1" s="299"/>
-      <c r="R1" s="299"/>
-      <c r="S1" s="299"/>
-      <c r="T1" s="300"/>
-      <c r="U1" s="297" t="s">
-        <v>298</v>
-      </c>
-      <c r="V1" s="290" t="s">
-        <v>300</v>
-      </c>
-      <c r="W1" s="290" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="289"/>
-      <c r="B2" s="289"/>
-      <c r="C2" s="316"/>
-      <c r="D2" s="317"/>
-      <c r="E2" s="318"/>
-      <c r="F2" s="289"/>
-      <c r="G2" s="321"/>
-      <c r="H2" s="321"/>
-      <c r="I2" s="320"/>
-      <c r="J2" s="301"/>
-      <c r="K2" s="302"/>
-      <c r="L2" s="302"/>
-      <c r="M2" s="302"/>
-      <c r="N2" s="302"/>
-      <c r="O2" s="302"/>
-      <c r="P2" s="302"/>
-      <c r="Q2" s="302"/>
-      <c r="R2" s="302"/>
-      <c r="S2" s="302"/>
-      <c r="T2" s="303"/>
-      <c r="U2" s="297"/>
-      <c r="V2" s="290"/>
-      <c r="W2" s="290"/>
-    </row>
-    <row r="3" spans="1:23" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="304" t="s">
+      <c r="K1" s="260"/>
+      <c r="L1" s="260"/>
+      <c r="M1" s="260"/>
+      <c r="N1" s="260"/>
+      <c r="O1" s="260"/>
+      <c r="P1" s="260"/>
+      <c r="Q1" s="260"/>
+      <c r="R1" s="260"/>
+      <c r="S1" s="260" t="s">
+        <v>288</v>
+      </c>
+      <c r="T1" s="261" t="s">
+        <v>290</v>
+      </c>
+      <c r="U1" s="258" t="s">
+        <v>291</v>
+      </c>
+      <c r="V1" s="284"/>
+      <c r="W1" s="323" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="251"/>
+      <c r="B2" s="251"/>
+      <c r="C2" s="277"/>
+      <c r="D2" s="278"/>
+      <c r="E2" s="279"/>
+      <c r="F2" s="251"/>
+      <c r="G2" s="282"/>
+      <c r="H2" s="282"/>
+      <c r="I2" s="281"/>
+      <c r="J2" s="262"/>
+      <c r="K2" s="263"/>
+      <c r="L2" s="263"/>
+      <c r="M2" s="263"/>
+      <c r="N2" s="263"/>
+      <c r="O2" s="263"/>
+      <c r="P2" s="263"/>
+      <c r="Q2" s="263"/>
+      <c r="R2" s="263"/>
+      <c r="S2" s="263"/>
+      <c r="T2" s="264"/>
+      <c r="U2" s="258"/>
+      <c r="V2" s="284"/>
+      <c r="W2" s="323"/>
+    </row>
+    <row r="3" spans="1:23" ht="93.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="265" t="s">
         <v>215</v>
       </c>
-      <c r="B3" s="108"/>
-      <c r="C3" s="165" t="s">
+      <c r="B3" s="107"/>
+      <c r="C3" s="164" t="s">
         <v>216</v>
       </c>
-      <c r="D3" s="165" t="s">
+      <c r="D3" s="164" t="s">
         <v>217</v>
       </c>
-      <c r="E3" s="165" t="s">
+      <c r="E3" s="164" t="s">
         <v>265</v>
       </c>
-      <c r="F3" s="165">
+      <c r="F3" s="164">
         <v>690</v>
       </c>
-      <c r="G3" s="172" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="172" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="173" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="122" t="s">
+      <c r="G3" s="171" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="171" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="172" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="121" t="s">
         <v>268</v>
       </c>
-      <c r="K3" s="122" t="s">
+      <c r="K3" s="121" t="s">
         <v>269</v>
       </c>
-      <c r="L3" s="122" t="s">
+      <c r="L3" s="121" t="s">
         <v>270</v>
       </c>
-      <c r="M3" s="122" t="s">
+      <c r="M3" s="121" t="s">
         <v>271</v>
       </c>
-      <c r="N3" s="122" t="s">
+      <c r="N3" s="121" t="s">
         <v>272</v>
       </c>
-      <c r="O3" s="122" t="s">
+      <c r="O3" s="121" t="s">
         <v>273</v>
       </c>
-      <c r="P3" s="122" t="s">
+      <c r="P3" s="121" t="s">
         <v>274</v>
       </c>
-      <c r="Q3" s="122"/>
-      <c r="R3" s="122" t="s">
+      <c r="Q3" s="121" t="s">
         <v>275</v>
       </c>
-      <c r="S3" s="122" t="s">
+      <c r="R3" s="121" t="s">
         <v>276</v>
       </c>
-      <c r="T3" s="123"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
+      <c r="S3" s="121"/>
+      <c r="T3" s="122" t="s">
+        <v>289</v>
+      </c>
+      <c r="U3" s="284"/>
+      <c r="V3" s="284"/>
       <c r="W3" s="1"/>
     </row>
-    <row r="4" spans="1:23" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="305"/>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108" t="s">
+    <row r="4" spans="1:23" ht="96.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="266"/>
+      <c r="B4" s="107"/>
+      <c r="C4" s="107" t="s">
         <v>221</v>
       </c>
-      <c r="D4" s="108" t="s">
+      <c r="D4" s="107" t="s">
         <v>218</v>
       </c>
-      <c r="E4" s="108" t="s">
+      <c r="E4" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="108">
+      <c r="F4" s="107">
         <v>514</v>
       </c>
-      <c r="G4" s="174" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="174" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="175" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="107" t="s">
+      <c r="G4" s="173" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="173" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="174" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="106" t="s">
         <v>268</v>
       </c>
-      <c r="K4" s="107" t="s">
+      <c r="K4" s="106" t="s">
         <v>279</v>
       </c>
-      <c r="L4" s="107" t="s">
+      <c r="L4" s="106" t="s">
         <v>277</v>
       </c>
-      <c r="M4" s="107" t="s">
+      <c r="M4" s="106" t="s">
         <v>278</v>
       </c>
-      <c r="N4" s="108"/>
-      <c r="O4" s="108"/>
-      <c r="P4" s="108"/>
-      <c r="Q4" s="108"/>
-      <c r="R4" s="108"/>
-      <c r="S4" s="108"/>
-      <c r="T4" s="124"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
+      <c r="N4" s="107"/>
+      <c r="O4" s="107"/>
+      <c r="P4" s="107"/>
+      <c r="Q4" s="107"/>
+      <c r="R4" s="107"/>
+      <c r="S4" s="107"/>
+      <c r="T4" s="123" t="s">
+        <v>289</v>
+      </c>
+      <c r="U4" s="284"/>
+      <c r="V4" s="284"/>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:23" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="305"/>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108" t="s">
+    <row r="5" spans="1:23" ht="93" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="266"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="107" t="s">
         <v>221</v>
       </c>
-      <c r="D5" s="108" t="s">
+      <c r="D5" s="107" t="s">
         <v>219</v>
       </c>
-      <c r="E5" s="108" t="s">
+      <c r="E5" s="107" t="s">
         <v>264</v>
       </c>
-      <c r="F5" s="108">
+      <c r="F5" s="107">
         <v>488</v>
       </c>
-      <c r="G5" s="174" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="174" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="175" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="107" t="s">
+      <c r="G5" s="173" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="173" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="174" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="106" t="s">
         <v>268</v>
       </c>
-      <c r="K5" s="107" t="s">
+      <c r="K5" s="106" t="s">
         <v>279</v>
       </c>
-      <c r="L5" s="107" t="s">
+      <c r="L5" s="106" t="s">
         <v>277</v>
       </c>
-      <c r="M5" s="107" t="s">
+      <c r="M5" s="106" t="s">
         <v>278</v>
       </c>
-      <c r="N5" s="108"/>
-      <c r="O5" s="108"/>
-      <c r="P5" s="108"/>
-      <c r="Q5" s="108"/>
-      <c r="R5" s="108"/>
-      <c r="S5" s="108"/>
-      <c r="T5" s="124"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
+      <c r="N5" s="107"/>
+      <c r="O5" s="107"/>
+      <c r="P5" s="107"/>
+      <c r="Q5" s="107"/>
+      <c r="R5" s="107"/>
+      <c r="S5" s="107"/>
+      <c r="T5" s="123" t="s">
+        <v>289</v>
+      </c>
+      <c r="U5" s="284"/>
+      <c r="V5" s="284"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:23" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="306"/>
-      <c r="B6" s="108"/>
-      <c r="C6" s="126" t="s">
+    <row r="6" spans="1:23" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="267"/>
+      <c r="B6" s="107"/>
+      <c r="C6" s="125" t="s">
         <v>221</v>
       </c>
-      <c r="D6" s="126" t="s">
+      <c r="D6" s="125" t="s">
         <v>220</v>
       </c>
-      <c r="E6" s="126" t="s">
+      <c r="E6" s="125" t="s">
         <v>263</v>
       </c>
-      <c r="F6" s="126">
+      <c r="F6" s="125">
         <v>552</v>
       </c>
-      <c r="G6" s="176" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="176" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="177" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="125" t="s">
+      <c r="G6" s="175" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="175" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="176" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="124" t="s">
         <v>268</v>
       </c>
-      <c r="K6" s="125" t="s">
+      <c r="K6" s="124" t="s">
         <v>279</v>
       </c>
-      <c r="L6" s="125" t="s">
+      <c r="L6" s="124" t="s">
         <v>277</v>
       </c>
-      <c r="M6" s="125" t="s">
+      <c r="M6" s="124" t="s">
         <v>278</v>
       </c>
-      <c r="N6" s="126"/>
-      <c r="O6" s="126"/>
-      <c r="P6" s="126"/>
-      <c r="Q6" s="126"/>
-      <c r="R6" s="126"/>
-      <c r="S6" s="126"/>
-      <c r="T6" s="127"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
+      <c r="N6" s="125"/>
+      <c r="O6" s="125"/>
+      <c r="P6" s="125"/>
+      <c r="Q6" s="125"/>
+      <c r="R6" s="125"/>
+      <c r="S6" s="125"/>
+      <c r="T6" s="126" t="s">
+        <v>289</v>
+      </c>
+      <c r="U6" s="284"/>
+      <c r="V6" s="284"/>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="103"/>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="178"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="104"/>
-      <c r="M7" s="104"/>
-      <c r="N7" s="104"/>
-      <c r="O7" s="104"/>
-      <c r="P7" s="104"/>
-      <c r="Q7" s="104"/>
-      <c r="R7" s="104"/>
-      <c r="S7" s="104"/>
-      <c r="T7" s="104"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
+    <row r="7" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="258"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="177"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
+      <c r="N7" s="103"/>
+      <c r="O7" s="103"/>
+      <c r="P7" s="103"/>
+      <c r="Q7" s="103"/>
+      <c r="R7" s="103"/>
+      <c r="S7" s="103"/>
+      <c r="T7" s="103"/>
+      <c r="U7" s="284"/>
+      <c r="V7" s="284"/>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="1:23" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="307" t="s">
+    <row r="8" spans="1:23" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="268" t="s">
         <v>222</v>
       </c>
-      <c r="B8" s="109"/>
-      <c r="C8" s="128" t="s">
+      <c r="B8" s="108"/>
+      <c r="C8" s="127" t="s">
         <v>216</v>
       </c>
-      <c r="D8" s="128" t="s">
+      <c r="D8" s="127" t="s">
         <v>223</v>
       </c>
-      <c r="E8" s="128" t="s">
+      <c r="E8" s="127" t="s">
         <v>267</v>
       </c>
-      <c r="F8" s="128">
+      <c r="F8" s="127">
         <v>824</v>
       </c>
-      <c r="G8" s="129" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="129" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="128"/>
-      <c r="J8" s="130" t="s">
+      <c r="G8" s="128" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="128" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="127"/>
+      <c r="J8" s="129" t="s">
         <v>268</v>
       </c>
-      <c r="K8" s="234" t="s">
-        <v>389</v>
-      </c>
-      <c r="L8" s="130" t="s">
-        <v>377</v>
-      </c>
-      <c r="M8" s="130"/>
-      <c r="N8" s="234" t="s">
+      <c r="K8" s="233" t="s">
+        <v>454</v>
+      </c>
+      <c r="L8" s="129" t="s">
+        <v>455</v>
+      </c>
+      <c r="M8" s="129" t="s">
+        <v>269</v>
+      </c>
+      <c r="N8" s="233" t="s">
+        <v>456</v>
+      </c>
+      <c r="O8" s="233" t="s">
+        <v>457</v>
+      </c>
+      <c r="P8" s="129" t="s">
+        <v>276</v>
+      </c>
+      <c r="S8">
+        <v>7</v>
+      </c>
+      <c r="T8" s="130" t="s">
+        <v>287</v>
+      </c>
+      <c r="U8" s="285">
+        <v>240097</v>
+      </c>
+      <c r="V8" s="284" t="s">
+        <v>458</v>
+      </c>
+      <c r="W8" s="1"/>
+    </row>
+    <row r="9" spans="1:23" ht="93" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="269"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="108" t="s">
+        <v>221</v>
+      </c>
+      <c r="D9" s="108" t="s">
+        <v>224</v>
+      </c>
+      <c r="E9" s="108" t="s">
         <v>280</v>
       </c>
-      <c r="O8" s="234" t="s">
-        <v>388</v>
-      </c>
-      <c r="P8" s="130" t="s">
+      <c r="F9" s="108">
+        <v>525</v>
+      </c>
+      <c r="G9" s="116" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="116" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="116"/>
+      <c r="J9" s="115" t="s">
+        <v>268</v>
+      </c>
+      <c r="K9" s="115" t="s">
+        <v>459</v>
+      </c>
+      <c r="L9" s="108" t="s">
         <v>276</v>
       </c>
-      <c r="T8" s="131"/>
-      <c r="U8" s="1">
+      <c r="M9" t="s">
+        <v>460</v>
+      </c>
+      <c r="N9" s="108"/>
+      <c r="O9" s="108"/>
+      <c r="P9" s="108"/>
+      <c r="Q9" s="108"/>
+      <c r="R9" s="108"/>
+      <c r="S9" s="108">
+        <v>4</v>
+      </c>
+      <c r="T9" s="131" t="s">
+        <v>287</v>
+      </c>
+      <c r="U9" s="285">
+        <v>240097</v>
+      </c>
+      <c r="V9" s="284" t="s">
+        <v>458</v>
+      </c>
+      <c r="W9" s="1"/>
+    </row>
+    <row r="10" spans="1:23" ht="93" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="269"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="108" t="s">
+        <v>221</v>
+      </c>
+      <c r="D10" s="108" t="s">
+        <v>225</v>
+      </c>
+      <c r="E10" s="108" t="s">
+        <v>228</v>
+      </c>
+      <c r="F10" s="108">
+        <v>858</v>
+      </c>
+      <c r="G10" s="116" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="108"/>
+      <c r="I10" s="116"/>
+      <c r="J10" s="232" t="s">
+        <v>352</v>
+      </c>
+      <c r="K10" s="108" t="s">
+        <v>461</v>
+      </c>
+      <c r="L10" s="108" t="s">
+        <v>276</v>
+      </c>
+      <c r="M10" t="s">
+        <v>460</v>
+      </c>
+      <c r="N10" s="108"/>
+      <c r="O10" s="108"/>
+      <c r="P10" s="108"/>
+      <c r="Q10" s="108"/>
+      <c r="R10" s="108"/>
+      <c r="S10" s="108">
+        <v>4</v>
+      </c>
+      <c r="T10" s="131" t="s">
+        <v>287</v>
+      </c>
+      <c r="U10" s="285">
+        <v>240097</v>
+      </c>
+      <c r="V10" s="284" t="s">
+        <v>458</v>
+      </c>
+      <c r="W10" s="1"/>
+    </row>
+    <row r="11" spans="1:23" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="270"/>
+      <c r="B11" s="108"/>
+      <c r="C11" s="132" t="s">
+        <v>221</v>
+      </c>
+      <c r="D11" s="132" t="s">
+        <v>226</v>
+      </c>
+      <c r="E11" s="132" t="s">
+        <v>227</v>
+      </c>
+      <c r="F11" s="132">
+        <v>760</v>
+      </c>
+      <c r="G11" s="133" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="132"/>
+      <c r="I11" s="132"/>
+      <c r="J11" s="134" t="s">
+        <v>268</v>
+      </c>
+      <c r="K11" s="132" t="s">
+        <v>462</v>
+      </c>
+      <c r="L11" s="132" t="s">
+        <v>276</v>
+      </c>
+      <c r="N11" s="132"/>
+      <c r="O11" s="132"/>
+      <c r="P11" s="132"/>
+      <c r="Q11" s="132"/>
+      <c r="R11" s="132"/>
+      <c r="S11" s="132">
+        <v>3</v>
+      </c>
+      <c r="T11" s="135" t="s">
+        <v>287</v>
+      </c>
+      <c r="U11" s="285">
+        <v>240097</v>
+      </c>
+      <c r="V11" s="284" t="s">
+        <v>458</v>
+      </c>
+      <c r="W11" s="1"/>
+    </row>
+    <row r="12" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="258"/>
+      <c r="B12" s="103"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="103"/>
+      <c r="I12" s="103"/>
+      <c r="J12" s="103"/>
+      <c r="K12" s="103"/>
+      <c r="L12" s="103"/>
+      <c r="M12" s="103"/>
+      <c r="N12" s="103"/>
+      <c r="O12" s="103"/>
+      <c r="P12" s="103"/>
+      <c r="Q12" s="103"/>
+      <c r="R12" s="103"/>
+      <c r="S12" s="103"/>
+      <c r="T12" s="103"/>
+      <c r="U12" s="284"/>
+      <c r="V12" s="284"/>
+      <c r="W12" s="1"/>
+    </row>
+    <row r="13" spans="1:23" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="178" t="s">
+        <v>233</v>
+      </c>
+      <c r="B13" s="109"/>
+      <c r="C13" s="162" t="s">
+        <v>216</v>
+      </c>
+      <c r="D13" s="162" t="s">
+        <v>232</v>
+      </c>
+      <c r="E13" s="162" t="s">
+        <v>234</v>
+      </c>
+      <c r="F13" s="162">
+        <v>434</v>
+      </c>
+      <c r="G13" s="179" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="179" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="162"/>
+      <c r="J13" s="162" t="s">
+        <v>351</v>
+      </c>
+      <c r="K13" s="162" t="s">
+        <v>463</v>
+      </c>
+      <c r="L13" s="162" t="s">
+        <v>464</v>
+      </c>
+      <c r="M13" s="162"/>
+      <c r="N13" s="234" t="s">
+        <v>465</v>
+      </c>
+      <c r="O13" s="162" t="s">
+        <v>278</v>
+      </c>
+      <c r="P13" s="162"/>
+      <c r="R13" s="162"/>
+      <c r="S13" s="162">
+        <v>5</v>
+      </c>
+      <c r="T13" s="163" t="s">
+        <v>289</v>
+      </c>
+      <c r="U13" s="285">
+        <v>240036</v>
+      </c>
+      <c r="V13" s="284" t="s">
+        <v>458</v>
+      </c>
+      <c r="W13" s="1"/>
+    </row>
+    <row r="14" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="258"/>
+      <c r="B14" s="103"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="103"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="103"/>
+      <c r="H14" s="103"/>
+      <c r="I14" s="177"/>
+      <c r="J14" s="103"/>
+      <c r="K14" s="103"/>
+      <c r="L14" s="103"/>
+      <c r="M14" s="103"/>
+      <c r="N14" s="103"/>
+      <c r="O14" s="103"/>
+      <c r="P14" s="103"/>
+      <c r="Q14" s="103"/>
+      <c r="R14" s="103"/>
+      <c r="S14" s="103"/>
+      <c r="T14" s="103"/>
+      <c r="U14" s="284"/>
+      <c r="V14" s="284"/>
+      <c r="W14" s="1"/>
+    </row>
+    <row r="15" spans="1:23" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="180" t="s">
+        <v>236</v>
+      </c>
+      <c r="B15" s="110"/>
+      <c r="C15" s="160" t="s">
+        <v>216</v>
+      </c>
+      <c r="D15" s="160" t="s">
+        <v>235</v>
+      </c>
+      <c r="E15" s="160" t="s">
+        <v>262</v>
+      </c>
+      <c r="F15" s="160">
+        <v>888</v>
+      </c>
+      <c r="G15" s="181" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="181" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="160"/>
+      <c r="J15" s="160" t="s">
+        <v>350</v>
+      </c>
+      <c r="K15" s="231" t="s">
+        <v>466</v>
+      </c>
+      <c r="L15" s="231" t="s">
+        <v>460</v>
+      </c>
+      <c r="M15" s="231" t="s">
+        <v>467</v>
+      </c>
+      <c r="N15" s="160" t="s">
+        <v>468</v>
+      </c>
+      <c r="O15" s="160" t="s">
+        <v>469</v>
+      </c>
+      <c r="P15" s="160" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q15" s="160"/>
+      <c r="R15" s="160"/>
+      <c r="S15">
+        <v>7</v>
+      </c>
+      <c r="T15" s="161" t="s">
+        <v>287</v>
+      </c>
+      <c r="U15" s="285">
+        <v>240158</v>
+      </c>
+      <c r="V15" s="284" t="s">
+        <v>458</v>
+      </c>
+      <c r="W15" s="1"/>
+    </row>
+    <row r="16" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="258"/>
+      <c r="B16" s="103"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="103"/>
+      <c r="I16" s="177"/>
+      <c r="J16" s="103"/>
+      <c r="K16" s="103"/>
+      <c r="L16" s="103"/>
+      <c r="M16" s="103"/>
+      <c r="N16" s="103"/>
+      <c r="O16" s="103"/>
+      <c r="P16" s="103"/>
+      <c r="Q16" s="103"/>
+      <c r="R16" s="103"/>
+      <c r="S16" s="103"/>
+      <c r="T16" s="103"/>
+      <c r="U16" s="284"/>
+      <c r="V16" s="284"/>
+      <c r="W16" s="1"/>
+    </row>
+    <row r="17" spans="1:23" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="271" t="s">
+        <v>238</v>
+      </c>
+      <c r="B17" s="165"/>
+      <c r="C17" s="166" t="s">
+        <v>216</v>
+      </c>
+      <c r="D17" s="166" t="s">
+        <v>237</v>
+      </c>
+      <c r="E17" s="166" t="s">
+        <v>258</v>
+      </c>
+      <c r="F17" s="166">
+        <v>998</v>
+      </c>
+      <c r="G17" s="182" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="166"/>
+      <c r="I17" s="166"/>
+      <c r="J17" s="166" t="s">
+        <v>350</v>
+      </c>
+      <c r="K17" s="166" t="s">
+        <v>470</v>
+      </c>
+      <c r="L17" s="166" t="s">
+        <v>471</v>
+      </c>
+      <c r="M17" s="235" t="s">
+        <v>467</v>
+      </c>
+      <c r="N17" s="166" t="s">
+        <v>276</v>
+      </c>
+      <c r="O17" s="235" t="s">
+        <v>472</v>
+      </c>
+      <c r="P17" s="166" t="s">
+        <v>473</v>
+      </c>
+      <c r="Q17" s="166"/>
+      <c r="R17" s="166"/>
+      <c r="S17" s="166">
+        <v>7</v>
+      </c>
+      <c r="T17" s="167" t="s">
+        <v>289</v>
+      </c>
+      <c r="U17" s="285">
+        <v>240128</v>
+      </c>
+      <c r="V17" s="284" t="s">
+        <v>458</v>
+      </c>
+      <c r="W17" s="1"/>
+    </row>
+    <row r="18" spans="1:23" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="272"/>
+      <c r="B18" s="165"/>
+      <c r="C18" s="165" t="s">
+        <v>221</v>
+      </c>
+      <c r="D18" s="165" t="s">
+        <v>281</v>
+      </c>
+      <c r="E18" s="165" t="s">
+        <v>257</v>
+      </c>
+      <c r="F18" s="165">
+        <v>432</v>
+      </c>
+      <c r="G18" s="183" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="165"/>
+      <c r="I18" s="165"/>
+      <c r="J18" s="165" t="s">
+        <v>269</v>
+      </c>
+      <c r="K18" s="165" t="s">
+        <v>474</v>
+      </c>
+      <c r="L18" s="165" t="s">
+        <v>475</v>
+      </c>
+      <c r="M18" s="165" t="s">
+        <v>268</v>
+      </c>
+      <c r="N18" s="165"/>
+      <c r="O18" s="165"/>
+      <c r="P18" s="165"/>
+      <c r="Q18" s="165"/>
+      <c r="R18" s="165"/>
+      <c r="S18" s="165">
+        <v>4</v>
+      </c>
+      <c r="T18" s="168" t="s">
+        <v>289</v>
+      </c>
+      <c r="U18" s="285">
+        <v>240128</v>
+      </c>
+      <c r="V18" s="284" t="s">
+        <v>458</v>
+      </c>
+      <c r="W18" s="1"/>
+    </row>
+    <row r="19" spans="1:23" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="272"/>
+      <c r="B19" s="165"/>
+      <c r="C19" s="165"/>
+      <c r="D19" s="165" t="s">
+        <v>282</v>
+      </c>
+      <c r="E19" s="165"/>
+      <c r="F19" s="165"/>
+      <c r="G19" s="183"/>
+      <c r="H19" s="165"/>
+      <c r="I19" s="165"/>
+      <c r="J19" s="165" t="s">
+        <v>269</v>
+      </c>
+      <c r="K19" s="165" t="s">
+        <v>474</v>
+      </c>
+      <c r="L19" s="165" t="s">
+        <v>475</v>
+      </c>
+      <c r="M19" s="165" t="s">
+        <v>268</v>
+      </c>
+      <c r="N19" s="165"/>
+      <c r="O19" s="165"/>
+      <c r="P19" s="165"/>
+      <c r="Q19" s="165"/>
+      <c r="R19" s="165"/>
+      <c r="S19" s="165">
+        <v>4</v>
+      </c>
+      <c r="T19" s="168" t="s">
+        <v>289</v>
+      </c>
+      <c r="U19" s="285">
+        <v>240128</v>
+      </c>
+      <c r="V19" s="284" t="s">
+        <v>458</v>
+      </c>
+      <c r="W19" s="1"/>
+    </row>
+    <row r="20" spans="1:23" ht="71.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="273"/>
+      <c r="B20" s="165"/>
+      <c r="C20" s="169"/>
+      <c r="D20" s="169" t="s">
+        <v>283</v>
+      </c>
+      <c r="E20" s="169"/>
+      <c r="F20" s="169"/>
+      <c r="G20" s="184"/>
+      <c r="H20" s="169"/>
+      <c r="I20" s="169"/>
+      <c r="J20" s="169" t="s">
+        <v>269</v>
+      </c>
+      <c r="K20" s="169" t="s">
+        <v>474</v>
+      </c>
+      <c r="L20" s="169" t="s">
+        <v>475</v>
+      </c>
+      <c r="M20" s="169" t="s">
+        <v>268</v>
+      </c>
+      <c r="N20" s="169"/>
+      <c r="O20" s="169"/>
+      <c r="P20" s="169"/>
+      <c r="Q20" s="169"/>
+      <c r="R20" s="169"/>
+      <c r="S20" s="169">
+        <v>4</v>
+      </c>
+      <c r="T20" s="170" t="s">
+        <v>289</v>
+      </c>
+      <c r="U20" s="285">
+        <v>240128</v>
+      </c>
+      <c r="V20" s="284" t="s">
+        <v>458</v>
+      </c>
+      <c r="W20" s="1"/>
+    </row>
+    <row r="21" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="258"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="103"/>
+      <c r="D21" s="103"/>
+      <c r="E21" s="103"/>
+      <c r="F21" s="103"/>
+      <c r="G21" s="103"/>
+      <c r="H21" s="103"/>
+      <c r="I21" s="103"/>
+      <c r="J21" s="103"/>
+      <c r="K21" s="103"/>
+      <c r="L21" s="103"/>
+      <c r="M21" s="103"/>
+      <c r="N21" s="103"/>
+      <c r="O21" s="103"/>
+      <c r="P21" s="103"/>
+      <c r="Q21" s="103"/>
+      <c r="R21" s="103"/>
+      <c r="S21" s="103"/>
+      <c r="T21" s="103"/>
+      <c r="U21" s="284"/>
+      <c r="V21" s="284"/>
+      <c r="W21" s="1"/>
+    </row>
+    <row r="22" spans="1:23" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="252" t="s">
+        <v>239</v>
+      </c>
+      <c r="B22" s="117"/>
+      <c r="C22" s="156" t="s">
+        <v>216</v>
+      </c>
+      <c r="D22" s="156" t="s">
+        <v>240</v>
+      </c>
+      <c r="E22" s="156" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" s="156">
+        <v>964</v>
+      </c>
+      <c r="G22" s="185" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="156"/>
+      <c r="I22" s="156"/>
+      <c r="J22" s="156" t="s">
+        <v>349</v>
+      </c>
+      <c r="K22" s="236" t="s">
+        <v>476</v>
+      </c>
+      <c r="L22" s="156" t="s">
+        <v>477</v>
+      </c>
+      <c r="M22" s="156" t="s">
+        <v>478</v>
+      </c>
+      <c r="N22" s="156" t="s">
+        <v>460</v>
+      </c>
+      <c r="O22" s="156" t="s">
+        <v>276</v>
+      </c>
+      <c r="P22" s="156"/>
+      <c r="Q22" s="156"/>
+      <c r="R22" s="156"/>
+      <c r="S22" s="156">
         <v>6</v>
       </c>
-      <c r="V8" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="W8" s="1"/>
-    </row>
-    <row r="9" spans="1:23" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="308"/>
-      <c r="B9" s="109"/>
-      <c r="C9" s="109" t="s">
+      <c r="T22" s="157" t="s">
+        <v>289</v>
+      </c>
+      <c r="U22" s="285">
+        <v>240250</v>
+      </c>
+      <c r="V22" s="284" t="s">
+        <v>458</v>
+      </c>
+      <c r="W22" s="1"/>
+    </row>
+    <row r="23" spans="1:23" ht="80.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="253"/>
+      <c r="B23" s="117"/>
+      <c r="C23" s="158" t="s">
         <v>221</v>
       </c>
-      <c r="D9" s="109" t="s">
-        <v>224</v>
-      </c>
-      <c r="E9" s="109" t="s">
-        <v>283</v>
-      </c>
-      <c r="F9" s="109">
-        <v>525</v>
-      </c>
-      <c r="G9" s="117" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="117" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="117"/>
-      <c r="J9" s="116" t="s">
+      <c r="D23" s="158" t="s">
+        <v>284</v>
+      </c>
+      <c r="E23" s="158" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="158">
+        <v>910</v>
+      </c>
+      <c r="G23" s="186" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="158"/>
+      <c r="I23" s="158"/>
+      <c r="J23" s="158" t="s">
         <v>268</v>
       </c>
-      <c r="K9" s="116" t="s">
-        <v>281</v>
-      </c>
-      <c r="L9" s="109" t="s">
-        <v>278</v>
-      </c>
-      <c r="N9" s="109"/>
-      <c r="O9" s="109"/>
-      <c r="P9" s="109"/>
-      <c r="Q9" s="109"/>
-      <c r="R9" s="109"/>
-      <c r="S9" s="109"/>
-      <c r="T9" s="132"/>
-      <c r="U9" s="1">
-        <v>3</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="W9" s="1"/>
-    </row>
-    <row r="10" spans="1:23" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="308"/>
-      <c r="B10" s="109"/>
-      <c r="C10" s="109" t="s">
+      <c r="K23" s="237" t="s">
+        <v>479</v>
+      </c>
+      <c r="L23" s="237" t="s">
+        <v>480</v>
+      </c>
+      <c r="M23" s="158" t="s">
+        <v>276</v>
+      </c>
+      <c r="N23" s="158" t="s">
+        <v>460</v>
+      </c>
+      <c r="O23" s="158" t="s">
+        <v>481</v>
+      </c>
+      <c r="P23" s="158"/>
+      <c r="Q23" s="158"/>
+      <c r="R23" s="158"/>
+      <c r="S23" s="158">
+        <v>6</v>
+      </c>
+      <c r="T23" s="159" t="s">
+        <v>289</v>
+      </c>
+      <c r="U23" s="285">
+        <v>240250</v>
+      </c>
+      <c r="V23" s="284" t="s">
+        <v>458</v>
+      </c>
+      <c r="W23" s="1"/>
+    </row>
+    <row r="24" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="258"/>
+      <c r="B24" s="103"/>
+      <c r="C24" s="103"/>
+      <c r="D24" s="103"/>
+      <c r="E24" s="103"/>
+      <c r="F24" s="103"/>
+      <c r="G24" s="103"/>
+      <c r="H24" s="103"/>
+      <c r="I24" s="103"/>
+      <c r="J24" s="103"/>
+      <c r="K24" s="103"/>
+      <c r="L24" s="103"/>
+      <c r="M24" s="103"/>
+      <c r="N24" s="103"/>
+      <c r="O24" s="103"/>
+      <c r="P24" s="103"/>
+      <c r="Q24" s="103"/>
+      <c r="R24" s="103"/>
+      <c r="S24" s="103"/>
+      <c r="T24" s="103"/>
+      <c r="U24" s="284"/>
+      <c r="V24" s="284"/>
+      <c r="W24" s="1"/>
+    </row>
+    <row r="25" spans="1:23" ht="86.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="187" t="s">
+        <v>241</v>
+      </c>
+      <c r="B25" s="111"/>
+      <c r="C25" s="188" t="s">
+        <v>216</v>
+      </c>
+      <c r="D25" s="188" t="s">
+        <v>242</v>
+      </c>
+      <c r="E25" s="188" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="188">
+        <v>934</v>
+      </c>
+      <c r="G25" s="189" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="188"/>
+      <c r="I25" s="188"/>
+      <c r="J25" s="154" t="s">
+        <v>268</v>
+      </c>
+      <c r="K25" s="154" t="s">
+        <v>482</v>
+      </c>
+      <c r="L25" s="154" t="s">
+        <v>483</v>
+      </c>
+      <c r="M25" s="154" t="s">
+        <v>484</v>
+      </c>
+      <c r="N25" s="154" t="s">
+        <v>460</v>
+      </c>
+      <c r="O25" s="154" t="s">
+        <v>485</v>
+      </c>
+      <c r="P25" s="154" t="s">
+        <v>486</v>
+      </c>
+      <c r="Q25" s="154" t="s">
+        <v>276</v>
+      </c>
+      <c r="R25" s="154"/>
+      <c r="S25" s="154">
+        <v>8</v>
+      </c>
+      <c r="T25" s="155" t="s">
+        <v>287</v>
+      </c>
+      <c r="U25" s="285">
+        <v>240311</v>
+      </c>
+      <c r="V25" s="284" t="s">
+        <v>458</v>
+      </c>
+      <c r="W25" s="1"/>
+    </row>
+    <row r="26" spans="1:23" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="238"/>
+      <c r="B26" s="239"/>
+      <c r="C26" s="242" t="s">
+        <v>353</v>
+      </c>
+      <c r="D26" s="239"/>
+      <c r="E26" s="239"/>
+      <c r="F26" s="239"/>
+      <c r="G26" s="240"/>
+      <c r="H26" s="239"/>
+      <c r="I26" s="239"/>
+      <c r="J26" s="243" t="s">
+        <v>354</v>
+      </c>
+      <c r="K26" s="243" t="s">
+        <v>487</v>
+      </c>
+      <c r="L26" s="241"/>
+      <c r="M26" s="241"/>
+      <c r="N26" s="241"/>
+      <c r="O26" s="241"/>
+      <c r="P26" s="241"/>
+      <c r="Q26" s="241"/>
+      <c r="R26" s="241"/>
+      <c r="S26" s="241">
+        <v>2</v>
+      </c>
+      <c r="T26" s="241" t="s">
+        <v>287</v>
+      </c>
+      <c r="U26" s="285">
+        <v>240311</v>
+      </c>
+      <c r="V26" s="284" t="s">
+        <v>458</v>
+      </c>
+      <c r="W26" s="228"/>
+    </row>
+    <row r="27" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="258"/>
+      <c r="B27" s="103"/>
+      <c r="C27" s="103"/>
+      <c r="D27" s="103"/>
+      <c r="E27" s="103"/>
+      <c r="F27" s="103"/>
+      <c r="G27" s="103"/>
+      <c r="H27" s="103"/>
+      <c r="I27" s="103"/>
+      <c r="J27" s="103"/>
+      <c r="K27" s="103"/>
+      <c r="L27" s="103"/>
+      <c r="M27" s="103"/>
+      <c r="N27" s="103"/>
+      <c r="O27" s="103"/>
+      <c r="P27" s="103"/>
+      <c r="Q27" s="103"/>
+      <c r="R27" s="103"/>
+      <c r="S27" s="103"/>
+      <c r="T27" s="103"/>
+      <c r="U27" s="284"/>
+      <c r="V27" s="284"/>
+      <c r="W27" s="1"/>
+    </row>
+    <row r="28" spans="1:23" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="190" t="s">
+        <v>244</v>
+      </c>
+      <c r="B28" s="118"/>
+      <c r="C28" s="150" t="s">
+        <v>216</v>
+      </c>
+      <c r="D28" s="150" t="s">
+        <v>243</v>
+      </c>
+      <c r="E28" s="150"/>
+      <c r="F28" s="150">
+        <v>542</v>
+      </c>
+      <c r="G28" s="191" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="150"/>
+      <c r="I28" s="150"/>
+      <c r="J28" s="150" t="s">
+        <v>268</v>
+      </c>
+      <c r="K28" s="229" t="s">
+        <v>488</v>
+      </c>
+      <c r="L28" s="150" t="s">
+        <v>460</v>
+      </c>
+      <c r="M28" s="150" t="s">
+        <v>489</v>
+      </c>
+      <c r="N28" s="150" t="s">
+        <v>490</v>
+      </c>
+      <c r="O28" s="150" t="s">
+        <v>491</v>
+      </c>
+      <c r="P28" s="150" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q28" s="150"/>
+      <c r="R28" s="150"/>
+      <c r="S28" s="150">
+        <v>7</v>
+      </c>
+      <c r="T28" s="151" t="s">
+        <v>289</v>
+      </c>
+      <c r="U28" s="285">
+        <v>240285</v>
+      </c>
+      <c r="V28" s="284" t="s">
+        <v>458</v>
+      </c>
+      <c r="W28" s="1"/>
+    </row>
+    <row r="29" spans="1:23" ht="77.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="192"/>
+      <c r="B29" s="118"/>
+      <c r="C29" s="152" t="s">
         <v>221</v>
       </c>
-      <c r="D10" s="109" t="s">
-        <v>225</v>
-      </c>
-      <c r="E10" s="109" t="s">
-        <v>228</v>
-      </c>
-      <c r="F10" s="109">
-        <v>858</v>
-      </c>
-      <c r="G10" s="117" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="109"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="233" t="s">
-        <v>387</v>
-      </c>
-      <c r="K10" s="109" t="s">
-        <v>282</v>
-      </c>
-      <c r="L10" s="109" t="s">
+      <c r="D29" s="152" t="s">
+        <v>243</v>
+      </c>
+      <c r="E29" s="152"/>
+      <c r="F29" s="152">
+        <v>688</v>
+      </c>
+      <c r="G29" s="193" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="152"/>
+      <c r="I29" s="152"/>
+      <c r="J29" s="152" t="s">
+        <v>268</v>
+      </c>
+      <c r="K29" s="152" t="s">
+        <v>492</v>
+      </c>
+      <c r="L29" s="245" t="s">
+        <v>493</v>
+      </c>
+      <c r="M29" s="152" t="s">
         <v>276</v>
       </c>
-      <c r="N10" s="109"/>
-      <c r="O10" s="109"/>
-      <c r="P10" s="109"/>
-      <c r="Q10" s="109"/>
-      <c r="R10" s="109"/>
-      <c r="S10" s="109"/>
-      <c r="T10" s="132"/>
-      <c r="U10" s="1">
-        <v>3</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="W10" s="1"/>
-    </row>
-    <row r="11" spans="1:23" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="309"/>
-      <c r="B11" s="109"/>
-      <c r="C11" s="133" t="s">
+      <c r="N29" s="152" t="s">
+        <v>460</v>
+      </c>
+      <c r="O29" s="152"/>
+      <c r="P29" s="152"/>
+      <c r="Q29" s="152"/>
+      <c r="R29" s="152"/>
+      <c r="S29" s="152">
+        <v>5</v>
+      </c>
+      <c r="T29" s="153" t="s">
+        <v>494</v>
+      </c>
+      <c r="U29" s="285">
+        <v>240285</v>
+      </c>
+      <c r="V29" s="284" t="s">
+        <v>458</v>
+      </c>
+      <c r="W29" s="1"/>
+    </row>
+    <row r="30" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="258"/>
+      <c r="B30" s="103"/>
+      <c r="C30" s="103"/>
+      <c r="D30" s="103"/>
+      <c r="E30" s="103"/>
+      <c r="F30" s="103"/>
+      <c r="G30" s="103"/>
+      <c r="H30" s="103"/>
+      <c r="I30" s="103"/>
+      <c r="J30" s="103"/>
+      <c r="K30" s="103"/>
+      <c r="L30" s="103"/>
+      <c r="M30" s="103"/>
+      <c r="N30" s="103"/>
+      <c r="O30" s="103"/>
+      <c r="P30" s="103"/>
+      <c r="Q30" s="103"/>
+      <c r="R30" s="103"/>
+      <c r="S30" s="103"/>
+      <c r="T30" s="103"/>
+      <c r="U30" s="284"/>
+      <c r="V30" s="284"/>
+      <c r="W30" s="1"/>
+    </row>
+    <row r="31" spans="1:23" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="194" t="s">
+        <v>246</v>
+      </c>
+      <c r="B31" s="112"/>
+      <c r="C31" s="148" t="s">
+        <v>216</v>
+      </c>
+      <c r="D31" s="148" t="s">
+        <v>245</v>
+      </c>
+      <c r="E31" s="148" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31" s="148">
+        <v>708</v>
+      </c>
+      <c r="G31" s="195" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="195" t="s">
+        <v>12</v>
+      </c>
+      <c r="I31" s="148"/>
+      <c r="J31" s="148" t="s">
+        <v>268</v>
+      </c>
+      <c r="K31" s="230" t="s">
+        <v>495</v>
+      </c>
+      <c r="L31" s="230" t="s">
+        <v>460</v>
+      </c>
+      <c r="M31" s="148" t="s">
+        <v>496</v>
+      </c>
+      <c r="N31" s="230" t="s">
+        <v>497</v>
+      </c>
+      <c r="O31" s="148" t="s">
+        <v>467</v>
+      </c>
+      <c r="P31" s="230" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q31" s="148"/>
+      <c r="R31" s="148"/>
+      <c r="S31" s="149">
+        <v>7</v>
+      </c>
+      <c r="T31" t="s">
+        <v>287</v>
+      </c>
+      <c r="U31" s="285">
+        <v>240288</v>
+      </c>
+      <c r="V31" s="284" t="s">
+        <v>458</v>
+      </c>
+      <c r="W31" s="1"/>
+    </row>
+    <row r="32" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="258"/>
+      <c r="B32" s="103"/>
+      <c r="C32" s="103"/>
+      <c r="D32" s="103"/>
+      <c r="E32" s="103"/>
+      <c r="F32" s="103"/>
+      <c r="G32" s="103"/>
+      <c r="H32" s="103"/>
+      <c r="I32" s="177"/>
+      <c r="J32" s="103"/>
+      <c r="K32" s="103"/>
+      <c r="L32" s="103"/>
+      <c r="M32" s="103"/>
+      <c r="N32" s="103"/>
+      <c r="O32" s="103"/>
+      <c r="P32" s="103"/>
+      <c r="Q32" s="103"/>
+      <c r="R32" s="103"/>
+      <c r="S32" s="103"/>
+      <c r="T32" s="103"/>
+      <c r="U32" s="284"/>
+      <c r="V32" s="284"/>
+      <c r="W32" s="1"/>
+    </row>
+    <row r="33" spans="1:23" ht="89.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="196" t="s">
+        <v>248</v>
+      </c>
+      <c r="B33" s="113"/>
+      <c r="C33" s="146" t="s">
+        <v>216</v>
+      </c>
+      <c r="D33" s="146" t="s">
+        <v>247</v>
+      </c>
+      <c r="E33" s="146" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" s="146">
+        <v>570</v>
+      </c>
+      <c r="G33" s="197" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" s="146"/>
+      <c r="I33" s="146"/>
+      <c r="J33" s="146" t="s">
+        <v>285</v>
+      </c>
+      <c r="K33" s="244" t="s">
+        <v>498</v>
+      </c>
+      <c r="L33" s="146" t="s">
+        <v>482</v>
+      </c>
+      <c r="M33" s="146" t="s">
+        <v>499</v>
+      </c>
+      <c r="N33" s="146" t="s">
+        <v>460</v>
+      </c>
+      <c r="O33" s="146" t="s">
+        <v>500</v>
+      </c>
+      <c r="P33" s="146" t="s">
+        <v>501</v>
+      </c>
+      <c r="Q33" s="244" t="s">
+        <v>276</v>
+      </c>
+      <c r="R33" s="146"/>
+      <c r="S33" s="146">
+        <v>8</v>
+      </c>
+      <c r="T33" s="147" t="s">
+        <v>289</v>
+      </c>
+      <c r="U33" s="285">
+        <v>240290</v>
+      </c>
+      <c r="V33" s="284" t="s">
+        <v>458</v>
+      </c>
+      <c r="W33" s="1"/>
+    </row>
+    <row r="34" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="258"/>
+      <c r="B34" s="103"/>
+      <c r="C34" s="103"/>
+      <c r="D34" s="103"/>
+      <c r="E34" s="103"/>
+      <c r="F34" s="103"/>
+      <c r="G34" s="103"/>
+      <c r="H34" s="103"/>
+      <c r="I34" s="103"/>
+      <c r="J34" s="103"/>
+      <c r="K34" s="103"/>
+      <c r="L34" s="103"/>
+      <c r="M34" s="103"/>
+      <c r="N34" s="103"/>
+      <c r="O34" s="103"/>
+      <c r="P34" s="103"/>
+      <c r="Q34" s="103"/>
+      <c r="R34" s="103"/>
+      <c r="S34" s="103"/>
+      <c r="T34" s="103"/>
+      <c r="U34" s="284"/>
+      <c r="V34" s="284"/>
+      <c r="W34" s="1"/>
+    </row>
+    <row r="35" spans="1:23" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="254" t="s">
+        <v>251</v>
+      </c>
+      <c r="B35" s="119"/>
+      <c r="C35" s="142" t="s">
+        <v>216</v>
+      </c>
+      <c r="D35" s="142" t="s">
+        <v>249</v>
+      </c>
+      <c r="E35" s="142" t="s">
+        <v>250</v>
+      </c>
+      <c r="F35" s="142">
+        <v>782</v>
+      </c>
+      <c r="G35" s="198" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" s="142"/>
+      <c r="I35" s="142"/>
+      <c r="J35" s="142" t="s">
+        <v>268</v>
+      </c>
+      <c r="K35" s="142" t="s">
+        <v>460</v>
+      </c>
+      <c r="L35" s="142" t="s">
+        <v>502</v>
+      </c>
+      <c r="M35" s="142" t="s">
+        <v>503</v>
+      </c>
+      <c r="N35" s="142" t="s">
+        <v>504</v>
+      </c>
+      <c r="O35" s="142" t="s">
+        <v>276</v>
+      </c>
+      <c r="P35" s="142"/>
+      <c r="Q35" s="142"/>
+      <c r="R35" s="142"/>
+      <c r="S35" s="142">
+        <v>6</v>
+      </c>
+      <c r="T35" s="143" t="s">
+        <v>289</v>
+      </c>
+      <c r="U35" s="285">
+        <v>240283</v>
+      </c>
+      <c r="V35" s="284" t="s">
+        <v>458</v>
+      </c>
+      <c r="W35" s="1"/>
+    </row>
+    <row r="36" spans="1:23" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="255"/>
+      <c r="B36" s="119"/>
+      <c r="C36" s="144" t="s">
         <v>221</v>
       </c>
-      <c r="D11" s="133" t="s">
-        <v>226</v>
-      </c>
-      <c r="E11" s="133" t="s">
-        <v>227</v>
-      </c>
-      <c r="F11" s="133">
-        <v>760</v>
-      </c>
-      <c r="G11" s="134" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="133"/>
-      <c r="I11" s="133"/>
-      <c r="J11" s="135" t="s">
+      <c r="D36" s="144" t="s">
+        <v>252</v>
+      </c>
+      <c r="E36" s="144" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" s="144">
+        <v>756</v>
+      </c>
+      <c r="G36" s="199" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" s="199" t="s">
+        <v>12</v>
+      </c>
+      <c r="I36" s="144"/>
+      <c r="J36" s="246" t="s">
+        <v>355</v>
+      </c>
+      <c r="K36" s="144" t="s">
+        <v>460</v>
+      </c>
+      <c r="L36" s="144" t="s">
+        <v>505</v>
+      </c>
+      <c r="M36" s="144" t="s">
+        <v>276</v>
+      </c>
+      <c r="N36" s="144"/>
+      <c r="O36" s="144"/>
+      <c r="P36" s="144"/>
+      <c r="Q36" s="144"/>
+      <c r="R36" s="144"/>
+      <c r="S36" s="144">
+        <v>4</v>
+      </c>
+      <c r="T36" s="145" t="s">
+        <v>289</v>
+      </c>
+      <c r="U36" s="285">
+        <v>240283</v>
+      </c>
+      <c r="V36" s="284" t="s">
+        <v>458</v>
+      </c>
+      <c r="W36" s="1"/>
+    </row>
+    <row r="37" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="258"/>
+      <c r="B37" s="103"/>
+      <c r="C37" s="103"/>
+      <c r="D37" s="103"/>
+      <c r="E37" s="103"/>
+      <c r="F37" s="103"/>
+      <c r="G37" s="103"/>
+      <c r="H37" s="103"/>
+      <c r="I37" s="177"/>
+      <c r="J37" s="103"/>
+      <c r="K37" s="103"/>
+      <c r="L37" s="103"/>
+      <c r="M37" s="103"/>
+      <c r="N37" s="103"/>
+      <c r="O37" s="103"/>
+      <c r="P37" s="103"/>
+      <c r="Q37" s="103"/>
+      <c r="R37" s="103"/>
+      <c r="S37" s="103"/>
+      <c r="T37" s="103"/>
+      <c r="U37" s="284"/>
+      <c r="V37" s="284"/>
+      <c r="W37" s="1"/>
+    </row>
+    <row r="38" spans="1:23" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="256" t="s">
+        <v>254</v>
+      </c>
+      <c r="B38" s="120"/>
+      <c r="C38" s="138" t="s">
+        <v>216</v>
+      </c>
+      <c r="D38" s="138" t="s">
+        <v>253</v>
+      </c>
+      <c r="E38" s="138" t="s">
+        <v>45</v>
+      </c>
+      <c r="F38" s="138">
+        <v>1196</v>
+      </c>
+      <c r="G38" s="200" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" s="200" t="s">
+        <v>12</v>
+      </c>
+      <c r="I38" s="138"/>
+      <c r="J38" s="138" t="s">
         <v>268</v>
       </c>
-      <c r="K11" s="133" t="s">
-        <v>382</v>
-      </c>
-      <c r="L11" s="133" t="s">
+      <c r="K38" s="138" t="s">
+        <v>460</v>
+      </c>
+      <c r="L38" s="138" t="s">
+        <v>506</v>
+      </c>
+      <c r="M38" s="138" t="s">
+        <v>507</v>
+      </c>
+      <c r="N38" s="247" t="s">
+        <v>508</v>
+      </c>
+      <c r="O38" s="138" t="s">
+        <v>509</v>
+      </c>
+      <c r="P38" s="138" t="s">
         <v>276</v>
       </c>
-      <c r="N11" s="133"/>
-      <c r="O11" s="133"/>
-      <c r="P11" s="133"/>
-      <c r="Q11" s="133"/>
-      <c r="R11" s="133"/>
-      <c r="S11" s="133"/>
-      <c r="T11" s="136"/>
-      <c r="U11" s="1">
-        <v>3</v>
-      </c>
-      <c r="V11" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="W11" s="1"/>
-    </row>
-    <row r="12" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="103"/>
-      <c r="B12" s="104"/>
-      <c r="C12" s="104"/>
-      <c r="D12" s="104"/>
-      <c r="E12" s="104"/>
-      <c r="F12" s="104"/>
-      <c r="G12" s="104"/>
-      <c r="H12" s="104"/>
-      <c r="I12" s="104"/>
-      <c r="J12" s="104"/>
-      <c r="K12" s="104"/>
-      <c r="L12" s="104"/>
-      <c r="M12" s="104"/>
-      <c r="N12" s="104"/>
-      <c r="O12" s="104"/>
-      <c r="P12" s="104"/>
-      <c r="Q12" s="104"/>
-      <c r="R12" s="104"/>
-      <c r="S12" s="104"/>
-      <c r="T12" s="104"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-    </row>
-    <row r="13" spans="1:23" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="179" t="s">
-        <v>233</v>
-      </c>
-      <c r="B13" s="110"/>
-      <c r="C13" s="163" t="s">
+      <c r="Q38" s="138"/>
+      <c r="R38" s="138"/>
+      <c r="S38" s="138">
+        <v>7</v>
+      </c>
+      <c r="T38" s="139" t="s">
+        <v>287</v>
+      </c>
+      <c r="U38" s="285">
+        <v>240290</v>
+      </c>
+      <c r="V38" s="284" t="s">
+        <v>458</v>
+      </c>
+      <c r="W38" s="1"/>
+    </row>
+    <row r="39" spans="1:23" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="257"/>
+      <c r="B39" s="120"/>
+      <c r="C39" s="140" t="s">
+        <v>221</v>
+      </c>
+      <c r="D39" s="140" t="s">
+        <v>286</v>
+      </c>
+      <c r="E39" s="140" t="s">
+        <v>46</v>
+      </c>
+      <c r="F39" s="140"/>
+      <c r="G39" s="140"/>
+      <c r="H39" s="140"/>
+      <c r="I39" s="201"/>
+      <c r="J39" s="140" t="s">
+        <v>268</v>
+      </c>
+      <c r="K39" s="248" t="s">
+        <v>510</v>
+      </c>
+      <c r="L39" s="140" t="s">
+        <v>276</v>
+      </c>
+      <c r="M39" s="140" t="s">
+        <v>460</v>
+      </c>
+      <c r="N39" s="140"/>
+      <c r="O39" s="140"/>
+      <c r="P39" s="140"/>
+      <c r="Q39" s="140"/>
+      <c r="R39" s="140"/>
+      <c r="S39" s="140">
+        <v>4</v>
+      </c>
+      <c r="T39" s="141" t="s">
+        <v>289</v>
+      </c>
+      <c r="U39" s="285">
+        <v>240290</v>
+      </c>
+      <c r="V39" s="284" t="s">
+        <v>458</v>
+      </c>
+      <c r="W39" s="1"/>
+    </row>
+    <row r="40" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="258"/>
+      <c r="B40" s="103"/>
+      <c r="C40" s="103"/>
+      <c r="D40" s="103"/>
+      <c r="E40" s="103"/>
+      <c r="F40" s="103"/>
+      <c r="G40" s="103"/>
+      <c r="H40" s="103"/>
+      <c r="I40" s="103"/>
+      <c r="J40" s="103"/>
+      <c r="K40" s="103"/>
+      <c r="L40" s="103"/>
+      <c r="M40" s="103"/>
+      <c r="N40" s="103"/>
+      <c r="O40" s="103"/>
+      <c r="P40" s="103"/>
+      <c r="Q40" s="103"/>
+      <c r="R40" s="103"/>
+      <c r="S40" s="103"/>
+      <c r="T40" s="103"/>
+      <c r="U40" s="284"/>
+      <c r="V40" s="284"/>
+      <c r="W40" s="1"/>
+    </row>
+    <row r="41" spans="1:23" ht="95.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="202" t="s">
+        <v>256</v>
+      </c>
+      <c r="B41" s="114"/>
+      <c r="C41" s="136" t="s">
         <v>216</v>
       </c>
-      <c r="D13" s="163" t="s">
-        <v>232</v>
-      </c>
-      <c r="E13" s="163" t="s">
-        <v>234</v>
-      </c>
-      <c r="F13" s="163">
-        <v>434</v>
-      </c>
-      <c r="G13" s="180" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="180" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" s="163"/>
-      <c r="J13" s="163" t="s">
-        <v>386</v>
-      </c>
-      <c r="K13" s="163" t="s">
-        <v>359</v>
-      </c>
-      <c r="L13" s="163" t="s">
-        <v>360</v>
-      </c>
-      <c r="M13" s="163"/>
-      <c r="N13" s="235" t="s">
-        <v>390</v>
-      </c>
-      <c r="O13" s="163"/>
-      <c r="P13" s="163" t="s">
-        <v>278</v>
-      </c>
-      <c r="R13" s="163"/>
-      <c r="S13" s="163"/>
-      <c r="T13" s="164"/>
-      <c r="U13" s="1">
+      <c r="D41" s="136" t="s">
+        <v>255</v>
+      </c>
+      <c r="E41" s="136" t="s">
+        <v>47</v>
+      </c>
+      <c r="F41" s="136">
+        <v>768</v>
+      </c>
+      <c r="G41" s="203" t="s">
+        <v>12</v>
+      </c>
+      <c r="H41" s="136"/>
+      <c r="I41" s="136"/>
+      <c r="J41" s="136" t="s">
+        <v>268</v>
+      </c>
+      <c r="K41" s="136" t="s">
+        <v>511</v>
+      </c>
+      <c r="L41" s="136" t="s">
+        <v>512</v>
+      </c>
+      <c r="M41" s="136" t="s">
+        <v>276</v>
+      </c>
+      <c r="N41" s="136"/>
+      <c r="O41" s="136"/>
+      <c r="P41" s="136"/>
+      <c r="Q41" s="136"/>
+      <c r="R41" s="136"/>
+      <c r="S41" s="136">
         <v>5</v>
       </c>
-      <c r="V13" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="W13" s="1"/>
-    </row>
-    <row r="14" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="103"/>
-      <c r="B14" s="104"/>
-      <c r="C14" s="104"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="104"/>
-      <c r="G14" s="104"/>
-      <c r="H14" s="104"/>
-      <c r="I14" s="178"/>
-      <c r="J14" s="104"/>
-      <c r="K14" s="104"/>
-      <c r="L14" s="104"/>
-      <c r="M14" s="104"/>
-      <c r="N14" s="104"/>
-      <c r="O14" s="104"/>
-      <c r="P14" s="104"/>
-      <c r="Q14" s="104"/>
-      <c r="R14" s="104"/>
-      <c r="S14" s="104"/>
-      <c r="T14" s="104"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-    </row>
-    <row r="15" spans="1:23" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="181" t="s">
-        <v>236</v>
-      </c>
-      <c r="B15" s="111"/>
-      <c r="C15" s="161" t="s">
-        <v>216</v>
-      </c>
-      <c r="D15" s="161" t="s">
-        <v>235</v>
-      </c>
-      <c r="E15" s="161" t="s">
-        <v>262</v>
-      </c>
-      <c r="F15" s="161">
-        <v>888</v>
-      </c>
-      <c r="G15" s="182" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="182" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" s="161"/>
-      <c r="J15" s="161" t="s">
-        <v>384</v>
-      </c>
-      <c r="K15" s="232" t="s">
-        <v>361</v>
-      </c>
-      <c r="L15" s="232"/>
-      <c r="M15" s="232" t="s">
-        <v>398</v>
-      </c>
-      <c r="N15" s="161"/>
-      <c r="O15" s="161" t="s">
-        <v>362</v>
-      </c>
-      <c r="P15" s="161" t="s">
-        <v>363</v>
-      </c>
-      <c r="Q15" s="161"/>
-      <c r="R15" s="161" t="s">
-        <v>278</v>
-      </c>
-      <c r="T15" s="162"/>
-      <c r="U15" s="1">
-        <v>6</v>
-      </c>
-      <c r="V15" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="W15" s="1"/>
-    </row>
-    <row r="16" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="103"/>
-      <c r="B16" s="104"/>
-      <c r="C16" s="104"/>
-      <c r="D16" s="104"/>
-      <c r="E16" s="104"/>
-      <c r="F16" s="104"/>
-      <c r="G16" s="104"/>
-      <c r="H16" s="104"/>
-      <c r="I16" s="178"/>
-      <c r="J16" s="104"/>
-      <c r="K16" s="104"/>
-      <c r="L16" s="104"/>
-      <c r="M16" s="104"/>
-      <c r="N16" s="104"/>
-      <c r="O16" s="104"/>
-      <c r="P16" s="104"/>
-      <c r="Q16" s="104"/>
-      <c r="R16" s="104"/>
-      <c r="S16" s="104"/>
-      <c r="T16" s="104"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-    </row>
-    <row r="17" spans="1:23" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="310" t="s">
-        <v>238</v>
-      </c>
-      <c r="B17" s="166"/>
-      <c r="C17" s="167" t="s">
-        <v>216</v>
-      </c>
-      <c r="D17" s="167" t="s">
-        <v>237</v>
-      </c>
-      <c r="E17" s="167" t="s">
-        <v>258</v>
-      </c>
-      <c r="F17" s="167">
-        <v>998</v>
-      </c>
-      <c r="G17" s="183" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="167"/>
-      <c r="I17" s="167"/>
-      <c r="J17" s="167" t="s">
-        <v>384</v>
-      </c>
-      <c r="K17" s="167" t="s">
-        <v>284</v>
-      </c>
-      <c r="L17" s="167" t="s">
-        <v>285</v>
-      </c>
-      <c r="M17" s="236" t="s">
-        <v>398</v>
-      </c>
-      <c r="N17" s="167" t="s">
-        <v>276</v>
-      </c>
-      <c r="O17" s="236" t="s">
-        <v>391</v>
-      </c>
-      <c r="P17" s="167"/>
-      <c r="Q17" s="167"/>
-      <c r="R17" s="167"/>
-      <c r="S17" s="167"/>
-      <c r="T17" s="168"/>
-      <c r="U17" s="1">
-        <v>6</v>
-      </c>
-      <c r="V17" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="W17" s="1"/>
-    </row>
-    <row r="18" spans="1:23" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="311"/>
-      <c r="B18" s="166"/>
-      <c r="C18" s="166" t="s">
-        <v>221</v>
-      </c>
-      <c r="D18" s="166" t="s">
-        <v>286</v>
-      </c>
-      <c r="E18" s="166" t="s">
-        <v>257</v>
-      </c>
-      <c r="F18" s="166">
-        <v>432</v>
-      </c>
-      <c r="G18" s="184" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="166"/>
-      <c r="I18" s="166"/>
-      <c r="J18" s="166" t="s">
-        <v>279</v>
-      </c>
-      <c r="K18" s="166" t="s">
-        <v>385</v>
-      </c>
-      <c r="L18" s="166" t="s">
-        <v>409</v>
-      </c>
-      <c r="M18" s="166"/>
-      <c r="N18" s="166"/>
-      <c r="O18" s="166"/>
-      <c r="P18" s="166"/>
-      <c r="Q18" s="166"/>
-      <c r="R18" s="166"/>
-      <c r="S18" s="166"/>
-      <c r="T18" s="169"/>
-      <c r="U18" s="1">
-        <v>3</v>
-      </c>
-      <c r="V18" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="W18" s="1"/>
-    </row>
-    <row r="19" spans="1:23" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="311"/>
-      <c r="B19" s="166"/>
-      <c r="C19" s="166"/>
-      <c r="D19" s="166" t="s">
-        <v>287</v>
-      </c>
-      <c r="E19" s="166"/>
-      <c r="F19" s="166"/>
-      <c r="G19" s="184"/>
-      <c r="H19" s="166"/>
-      <c r="I19" s="166"/>
-      <c r="J19" s="166" t="s">
-        <v>279</v>
-      </c>
-      <c r="K19" s="166" t="s">
-        <v>385</v>
-      </c>
-      <c r="L19" s="166" t="s">
-        <v>409</v>
-      </c>
-      <c r="M19" s="166"/>
-      <c r="N19" s="166"/>
-      <c r="O19" s="166"/>
-      <c r="P19" s="166"/>
-      <c r="Q19" s="166"/>
-      <c r="R19" s="166"/>
-      <c r="S19" s="166"/>
-      <c r="T19" s="169"/>
-      <c r="U19" s="1">
-        <v>3</v>
-      </c>
-      <c r="V19" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="W19" s="1"/>
-    </row>
-    <row r="20" spans="1:23" ht="71.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="312"/>
-      <c r="B20" s="166"/>
-      <c r="C20" s="170"/>
-      <c r="D20" s="170" t="s">
-        <v>288</v>
-      </c>
-      <c r="E20" s="170"/>
-      <c r="F20" s="170"/>
-      <c r="G20" s="185"/>
-      <c r="H20" s="170"/>
-      <c r="I20" s="170"/>
-      <c r="J20" s="170" t="s">
-        <v>279</v>
-      </c>
-      <c r="K20" s="170" t="s">
-        <v>385</v>
-      </c>
-      <c r="L20" s="170" t="s">
-        <v>409</v>
-      </c>
-      <c r="M20" s="170"/>
-      <c r="N20" s="170"/>
-      <c r="O20" s="170"/>
-      <c r="P20" s="170"/>
-      <c r="Q20" s="170"/>
-      <c r="R20" s="170"/>
-      <c r="S20" s="170"/>
-      <c r="T20" s="171"/>
-      <c r="U20" s="1">
-        <v>3</v>
-      </c>
-      <c r="V20" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="W20" s="1"/>
-    </row>
-    <row r="21" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="103"/>
-      <c r="B21" s="104"/>
-      <c r="C21" s="104"/>
-      <c r="D21" s="104"/>
-      <c r="E21" s="104"/>
-      <c r="F21" s="104"/>
-      <c r="G21" s="104"/>
-      <c r="H21" s="104"/>
-      <c r="I21" s="104"/>
-      <c r="J21" s="104"/>
-      <c r="K21" s="104"/>
-      <c r="L21" s="104"/>
-      <c r="M21" s="104"/>
-      <c r="N21" s="104"/>
-      <c r="O21" s="104"/>
-      <c r="P21" s="104"/>
-      <c r="Q21" s="104"/>
-      <c r="R21" s="104"/>
-      <c r="S21" s="104"/>
-      <c r="T21" s="104"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
-    </row>
-    <row r="22" spans="1:23" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="291" t="s">
-        <v>239</v>
-      </c>
-      <c r="B22" s="118"/>
-      <c r="C22" s="157" t="s">
-        <v>216</v>
-      </c>
-      <c r="D22" s="157" t="s">
-        <v>240</v>
-      </c>
-      <c r="E22" s="157" t="s">
-        <v>63</v>
-      </c>
-      <c r="F22" s="157">
-        <v>964</v>
-      </c>
-      <c r="G22" s="186" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" s="157"/>
-      <c r="I22" s="157"/>
-      <c r="J22" s="157" t="s">
-        <v>383</v>
-      </c>
-      <c r="K22" s="237" t="s">
-        <v>392</v>
-      </c>
-      <c r="L22" s="157" t="s">
-        <v>375</v>
-      </c>
-      <c r="M22" s="157" t="s">
-        <v>376</v>
-      </c>
-      <c r="N22" s="157"/>
-      <c r="O22" s="157" t="s">
-        <v>276</v>
-      </c>
-      <c r="P22" s="157"/>
-      <c r="Q22" s="157"/>
-      <c r="R22" s="157"/>
-      <c r="S22" s="157"/>
-      <c r="T22" s="158"/>
-      <c r="U22" s="1">
-        <v>5</v>
-      </c>
-      <c r="V22" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="W22" s="1"/>
-    </row>
-    <row r="23" spans="1:23" ht="80.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="292"/>
-      <c r="B23" s="118"/>
-      <c r="C23" s="159" t="s">
-        <v>221</v>
-      </c>
-      <c r="D23" s="159" t="s">
+      <c r="T41" s="137" t="s">
         <v>289</v>
       </c>
-      <c r="E23" s="159" t="s">
-        <v>41</v>
-      </c>
-      <c r="F23" s="159">
-        <v>910</v>
-      </c>
-      <c r="G23" s="187" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" s="159"/>
-      <c r="I23" s="159"/>
-      <c r="J23" s="159" t="s">
-        <v>268</v>
-      </c>
-      <c r="K23" s="238" t="s">
-        <v>393</v>
-      </c>
-      <c r="L23" s="238" t="s">
-        <v>394</v>
-      </c>
-      <c r="M23" s="159" t="s">
-        <v>276</v>
-      </c>
-      <c r="N23" s="159"/>
-      <c r="O23" s="159"/>
-      <c r="P23" s="159"/>
-      <c r="Q23" s="159"/>
-      <c r="R23" s="159"/>
-      <c r="S23" s="159"/>
-      <c r="T23" s="160"/>
-      <c r="U23" s="1">
-        <v>4</v>
-      </c>
-      <c r="V23" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="W23" s="1"/>
-    </row>
-    <row r="24" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="103"/>
-      <c r="B24" s="104"/>
-      <c r="C24" s="104"/>
-      <c r="D24" s="104"/>
-      <c r="E24" s="104"/>
-      <c r="F24" s="104"/>
-      <c r="G24" s="104"/>
-      <c r="H24" s="104"/>
-      <c r="I24" s="104"/>
-      <c r="J24" s="104"/>
-      <c r="K24" s="104"/>
-      <c r="L24" s="104"/>
-      <c r="M24" s="104"/>
-      <c r="N24" s="104"/>
-      <c r="O24" s="104"/>
-      <c r="P24" s="104"/>
-      <c r="Q24" s="104"/>
-      <c r="R24" s="104"/>
-      <c r="S24" s="104"/>
-      <c r="T24" s="104"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
-      <c r="W24" s="1"/>
-    </row>
-    <row r="25" spans="1:23" ht="86.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="188" t="s">
-        <v>241</v>
-      </c>
-      <c r="B25" s="112"/>
-      <c r="C25" s="189" t="s">
-        <v>216</v>
-      </c>
-      <c r="D25" s="189" t="s">
-        <v>242</v>
-      </c>
-      <c r="E25" s="189" t="s">
-        <v>61</v>
-      </c>
-      <c r="F25" s="189">
-        <v>934</v>
-      </c>
-      <c r="G25" s="190" t="s">
-        <v>12</v>
-      </c>
-      <c r="H25" s="189"/>
-      <c r="I25" s="189"/>
-      <c r="J25" s="155" t="s">
-        <v>268</v>
-      </c>
-      <c r="K25" s="155" t="s">
-        <v>290</v>
-      </c>
-      <c r="L25" s="155" t="s">
-        <v>373</v>
-      </c>
-      <c r="M25" s="155" t="s">
-        <v>374</v>
-      </c>
-      <c r="N25" s="155"/>
-      <c r="O25" s="155"/>
-      <c r="P25" s="155"/>
-      <c r="Q25" s="155" t="s">
-        <v>291</v>
-      </c>
-      <c r="R25" s="155" t="s">
-        <v>292</v>
-      </c>
-      <c r="S25" s="155" t="s">
-        <v>276</v>
-      </c>
-      <c r="T25" s="156"/>
-      <c r="U25" s="1">
-        <v>7</v>
-      </c>
-      <c r="V25" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="W25" s="1"/>
-    </row>
-    <row r="26" spans="1:23" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="239"/>
-      <c r="B26" s="240"/>
-      <c r="C26" s="243" t="s">
-        <v>395</v>
-      </c>
-      <c r="D26" s="240"/>
-      <c r="E26" s="240"/>
-      <c r="F26" s="240"/>
-      <c r="G26" s="241"/>
-      <c r="H26" s="240"/>
-      <c r="I26" s="240"/>
-      <c r="J26" s="244" t="s">
-        <v>396</v>
-      </c>
-      <c r="K26" s="244" t="s">
-        <v>397</v>
-      </c>
-      <c r="L26" s="242"/>
-      <c r="M26" s="242"/>
-      <c r="N26" s="242"/>
-      <c r="O26" s="242"/>
-      <c r="P26" s="242"/>
-      <c r="Q26" s="242"/>
-      <c r="R26" s="242"/>
-      <c r="S26" s="242"/>
-      <c r="T26" s="242"/>
-      <c r="U26" s="229">
-        <v>2</v>
-      </c>
-      <c r="V26" s="229"/>
-      <c r="W26" s="229"/>
-    </row>
-    <row r="27" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="103"/>
-      <c r="B27" s="104"/>
-      <c r="C27" s="104"/>
-      <c r="D27" s="104"/>
-      <c r="E27" s="104"/>
-      <c r="F27" s="104"/>
-      <c r="G27" s="104"/>
-      <c r="H27" s="104"/>
-      <c r="I27" s="104"/>
-      <c r="J27" s="104"/>
-      <c r="K27" s="104"/>
-      <c r="L27" s="104"/>
-      <c r="M27" s="104"/>
-      <c r="N27" s="104"/>
-      <c r="O27" s="104"/>
-      <c r="P27" s="104"/>
-      <c r="Q27" s="104"/>
-      <c r="R27" s="104"/>
-      <c r="S27" s="104"/>
-      <c r="T27" s="104"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-      <c r="W27" s="1"/>
-    </row>
-    <row r="28" spans="1:23" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="191" t="s">
-        <v>244</v>
-      </c>
-      <c r="B28" s="119"/>
-      <c r="C28" s="151" t="s">
-        <v>216</v>
-      </c>
-      <c r="D28" s="151" t="s">
-        <v>243</v>
-      </c>
-      <c r="E28" s="151"/>
-      <c r="F28" s="151">
-        <v>542</v>
-      </c>
-      <c r="G28" s="192" t="s">
-        <v>12</v>
-      </c>
-      <c r="H28" s="151"/>
-      <c r="I28" s="151"/>
-      <c r="J28" s="151" t="s">
-        <v>268</v>
-      </c>
-      <c r="K28" s="230" t="s">
-        <v>365</v>
-      </c>
-      <c r="L28" s="151"/>
-      <c r="M28" s="151" t="s">
-        <v>370</v>
-      </c>
-      <c r="N28" s="151" t="s">
-        <v>371</v>
-      </c>
-      <c r="O28" s="151" t="s">
-        <v>372</v>
-      </c>
-      <c r="P28" s="151"/>
-      <c r="Q28" s="151" t="s">
-        <v>276</v>
-      </c>
-      <c r="R28" s="151"/>
-      <c r="S28" s="151"/>
-      <c r="T28" s="152"/>
-      <c r="U28" s="1">
-        <v>6</v>
-      </c>
-      <c r="V28" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="W28" s="1"/>
-    </row>
-    <row r="29" spans="1:23" ht="77.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="193"/>
-      <c r="B29" s="119"/>
-      <c r="C29" s="153" t="s">
-        <v>221</v>
-      </c>
-      <c r="D29" s="153" t="s">
-        <v>243</v>
-      </c>
-      <c r="E29" s="153"/>
-      <c r="F29" s="153">
-        <v>688</v>
-      </c>
-      <c r="G29" s="194" t="s">
-        <v>12</v>
-      </c>
-      <c r="H29" s="153"/>
-      <c r="I29" s="153"/>
-      <c r="J29" s="153" t="s">
-        <v>268</v>
-      </c>
-      <c r="K29" s="153" t="s">
-        <v>399</v>
-      </c>
-      <c r="L29" s="246" t="s">
-        <v>400</v>
-      </c>
-      <c r="M29" s="153" t="s">
-        <v>276</v>
-      </c>
-      <c r="N29" s="153"/>
-      <c r="O29" s="153"/>
-      <c r="P29" s="153"/>
-      <c r="Q29" s="153"/>
-      <c r="R29" s="153"/>
-      <c r="S29" s="153"/>
-      <c r="T29" s="154"/>
-      <c r="U29" s="1">
-        <v>3</v>
-      </c>
-      <c r="V29" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="W29" s="1"/>
-    </row>
-    <row r="30" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="103"/>
-      <c r="B30" s="104"/>
-      <c r="C30" s="104"/>
-      <c r="D30" s="104"/>
-      <c r="E30" s="104"/>
-      <c r="F30" s="104"/>
-      <c r="G30" s="104"/>
-      <c r="H30" s="104"/>
-      <c r="I30" s="104"/>
-      <c r="J30" s="104"/>
-      <c r="K30" s="104"/>
-      <c r="L30" s="104"/>
-      <c r="M30" s="104"/>
-      <c r="N30" s="104"/>
-      <c r="O30" s="104"/>
-      <c r="P30" s="104"/>
-      <c r="Q30" s="104"/>
-      <c r="R30" s="104"/>
-      <c r="S30" s="104"/>
-      <c r="T30" s="104"/>
-      <c r="U30" s="1"/>
-      <c r="V30" s="1"/>
-      <c r="W30" s="1"/>
-    </row>
-    <row r="31" spans="1:23" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="195" t="s">
-        <v>246</v>
-      </c>
-      <c r="B31" s="113"/>
-      <c r="C31" s="149" t="s">
-        <v>216</v>
-      </c>
-      <c r="D31" s="149" t="s">
-        <v>245</v>
-      </c>
-      <c r="E31" s="149" t="s">
-        <v>59</v>
-      </c>
-      <c r="F31" s="149">
-        <v>708</v>
-      </c>
-      <c r="G31" s="196" t="s">
-        <v>12</v>
-      </c>
-      <c r="H31" s="196" t="s">
-        <v>12</v>
-      </c>
-      <c r="I31" s="149"/>
-      <c r="J31" s="149" t="s">
-        <v>268</v>
-      </c>
-      <c r="K31" s="231" t="s">
-        <v>402</v>
-      </c>
-      <c r="L31" s="231"/>
-      <c r="M31" s="149" t="s">
-        <v>378</v>
-      </c>
-      <c r="N31" s="231"/>
-      <c r="O31" s="149" t="s">
-        <v>401</v>
-      </c>
-      <c r="P31" s="231" t="s">
-        <v>398</v>
-      </c>
-      <c r="Q31" s="149"/>
-      <c r="R31" s="149"/>
-      <c r="S31" s="150" t="s">
-        <v>276</v>
-      </c>
-      <c r="U31" s="1">
-        <v>6</v>
-      </c>
-      <c r="V31" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="W31" s="1"/>
-    </row>
-    <row r="32" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="103"/>
-      <c r="B32" s="104"/>
-      <c r="C32" s="104"/>
-      <c r="D32" s="104"/>
-      <c r="E32" s="104"/>
-      <c r="F32" s="104"/>
-      <c r="G32" s="104"/>
-      <c r="H32" s="104"/>
-      <c r="I32" s="178"/>
-      <c r="J32" s="104"/>
-      <c r="K32" s="104"/>
-      <c r="L32" s="104"/>
-      <c r="M32" s="104"/>
-      <c r="N32" s="104"/>
-      <c r="O32" s="104"/>
-      <c r="P32" s="104"/>
-      <c r="Q32" s="104"/>
-      <c r="R32" s="104"/>
-      <c r="S32" s="104"/>
-      <c r="T32" s="104"/>
-      <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
-      <c r="W32" s="1"/>
-    </row>
-    <row r="33" spans="1:23" ht="89.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="197" t="s">
-        <v>248</v>
-      </c>
-      <c r="B33" s="114"/>
-      <c r="C33" s="147" t="s">
-        <v>216</v>
-      </c>
-      <c r="D33" s="147" t="s">
-        <v>247</v>
-      </c>
-      <c r="E33" s="147" t="s">
-        <v>43</v>
-      </c>
-      <c r="F33" s="147">
-        <v>570</v>
-      </c>
-      <c r="G33" s="198" t="s">
-        <v>12</v>
-      </c>
-      <c r="H33" s="147"/>
-      <c r="I33" s="147"/>
-      <c r="J33" s="147" t="s">
-        <v>293</v>
-      </c>
-      <c r="K33" s="245" t="s">
-        <v>404</v>
-      </c>
-      <c r="L33" s="147" t="s">
-        <v>290</v>
-      </c>
-      <c r="M33" s="147" t="s">
-        <v>379</v>
-      </c>
-      <c r="N33" s="147"/>
-      <c r="O33" s="147" t="s">
-        <v>380</v>
-      </c>
-      <c r="P33" s="147" t="s">
-        <v>403</v>
-      </c>
-      <c r="Q33" s="245"/>
-      <c r="R33" s="147"/>
-      <c r="S33" s="147" t="s">
-        <v>276</v>
-      </c>
-      <c r="T33" s="148"/>
-      <c r="U33" s="1">
-        <v>6</v>
-      </c>
-      <c r="V33" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="W33" s="1"/>
-    </row>
-    <row r="34" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="103"/>
-      <c r="B34" s="104"/>
-      <c r="C34" s="104"/>
-      <c r="D34" s="104"/>
-      <c r="E34" s="104"/>
-      <c r="F34" s="104"/>
-      <c r="G34" s="104"/>
-      <c r="H34" s="104"/>
-      <c r="I34" s="104"/>
-      <c r="J34" s="104"/>
-      <c r="K34" s="104"/>
-      <c r="L34" s="104"/>
-      <c r="M34" s="104"/>
-      <c r="N34" s="104"/>
-      <c r="O34" s="104"/>
-      <c r="P34" s="104"/>
-      <c r="Q34" s="104"/>
-      <c r="R34" s="104"/>
-      <c r="S34" s="104"/>
-      <c r="T34" s="104"/>
-      <c r="U34" s="1"/>
-      <c r="V34" s="1"/>
-      <c r="W34" s="1"/>
-    </row>
-    <row r="35" spans="1:23" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="293" t="s">
-        <v>251</v>
-      </c>
-      <c r="B35" s="120"/>
-      <c r="C35" s="143" t="s">
-        <v>216</v>
-      </c>
-      <c r="D35" s="143" t="s">
-        <v>249</v>
-      </c>
-      <c r="E35" s="143" t="s">
-        <v>250</v>
-      </c>
-      <c r="F35" s="143">
-        <v>782</v>
-      </c>
-      <c r="G35" s="199" t="s">
-        <v>12</v>
-      </c>
-      <c r="H35" s="143"/>
-      <c r="I35" s="143"/>
-      <c r="J35" s="143" t="s">
-        <v>268</v>
-      </c>
-      <c r="K35" s="143"/>
-      <c r="L35" s="143" t="s">
-        <v>366</v>
-      </c>
-      <c r="M35" s="143" t="s">
-        <v>368</v>
-      </c>
-      <c r="N35" s="143" t="s">
-        <v>369</v>
-      </c>
-      <c r="O35" s="143"/>
-      <c r="P35" s="143"/>
-      <c r="Q35" s="143"/>
-      <c r="R35" s="143" t="s">
-        <v>276</v>
-      </c>
-      <c r="S35" s="143"/>
-      <c r="T35" s="144"/>
-      <c r="U35" s="1">
-        <v>5</v>
-      </c>
-      <c r="V35" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="W35" s="1"/>
-    </row>
-    <row r="36" spans="1:23" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="294"/>
-      <c r="B36" s="120"/>
-      <c r="C36" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="D36" s="145" t="s">
-        <v>252</v>
-      </c>
-      <c r="E36" s="145" t="s">
-        <v>44</v>
-      </c>
-      <c r="F36" s="145">
-        <v>756</v>
-      </c>
-      <c r="G36" s="200" t="s">
-        <v>12</v>
-      </c>
-      <c r="H36" s="200" t="s">
-        <v>12</v>
-      </c>
-      <c r="I36" s="145"/>
-      <c r="J36" s="247" t="s">
-        <v>405</v>
-      </c>
-      <c r="K36" s="145"/>
-      <c r="L36" s="145"/>
-      <c r="M36" s="145" t="s">
-        <v>364</v>
-      </c>
-      <c r="N36" s="145" t="s">
-        <v>409</v>
-      </c>
-      <c r="O36" s="145"/>
-      <c r="P36" s="145"/>
-      <c r="Q36" s="145"/>
-      <c r="R36" s="145"/>
-      <c r="S36" s="145"/>
-      <c r="T36" s="146"/>
-      <c r="U36" s="1">
-        <v>3</v>
-      </c>
-      <c r="V36" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="W36" s="1"/>
-    </row>
-    <row r="37" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="103"/>
-      <c r="B37" s="104"/>
-      <c r="C37" s="104"/>
-      <c r="D37" s="104"/>
-      <c r="E37" s="104"/>
-      <c r="F37" s="104"/>
-      <c r="G37" s="104"/>
-      <c r="H37" s="104"/>
-      <c r="I37" s="178"/>
-      <c r="J37" s="104"/>
-      <c r="K37" s="104"/>
-      <c r="L37" s="104"/>
-      <c r="M37" s="104"/>
-      <c r="N37" s="104"/>
-      <c r="O37" s="104"/>
-      <c r="P37" s="104"/>
-      <c r="Q37" s="104"/>
-      <c r="R37" s="104"/>
-      <c r="S37" s="104"/>
-      <c r="T37" s="104"/>
-      <c r="U37" s="1"/>
-      <c r="V37" s="1"/>
-      <c r="W37" s="1"/>
-    </row>
-    <row r="38" spans="1:23" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="295" t="s">
-        <v>254</v>
-      </c>
-      <c r="B38" s="121"/>
-      <c r="C38" s="139" t="s">
-        <v>216</v>
-      </c>
-      <c r="D38" s="139" t="s">
-        <v>253</v>
-      </c>
-      <c r="E38" s="139" t="s">
-        <v>45</v>
-      </c>
-      <c r="F38" s="139">
-        <v>1196</v>
-      </c>
-      <c r="G38" s="201" t="s">
-        <v>12</v>
-      </c>
-      <c r="H38" s="201" t="s">
-        <v>12</v>
-      </c>
-      <c r="I38" s="139"/>
-      <c r="J38" s="139" t="s">
-        <v>268</v>
-      </c>
-      <c r="K38" s="139"/>
-      <c r="L38" s="139" t="s">
-        <v>294</v>
-      </c>
-      <c r="M38" s="139" t="s">
-        <v>295</v>
-      </c>
-      <c r="N38" s="248" t="s">
-        <v>406</v>
-      </c>
-      <c r="O38" s="139" t="s">
-        <v>407</v>
-      </c>
-      <c r="P38" s="139" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q38" s="139"/>
-      <c r="R38" s="139"/>
-      <c r="S38" s="139"/>
-      <c r="T38" s="140"/>
-      <c r="U38" s="1">
-        <v>6</v>
-      </c>
-      <c r="V38" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="W38" s="1"/>
-    </row>
-    <row r="39" spans="1:23" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="296"/>
-      <c r="B39" s="121"/>
-      <c r="C39" s="141" t="s">
-        <v>221</v>
-      </c>
-      <c r="D39" s="141" t="s">
-        <v>296</v>
-      </c>
-      <c r="E39" s="141" t="s">
-        <v>46</v>
-      </c>
-      <c r="F39" s="141"/>
-      <c r="G39" s="141"/>
-      <c r="H39" s="141"/>
-      <c r="I39" s="202"/>
-      <c r="J39" s="141" t="s">
-        <v>268</v>
-      </c>
-      <c r="K39" s="249" t="s">
-        <v>408</v>
-      </c>
-      <c r="L39" s="141" t="s">
-        <v>276</v>
-      </c>
-      <c r="M39" s="141"/>
-      <c r="N39" s="141"/>
-      <c r="O39" s="141"/>
-      <c r="P39" s="141"/>
-      <c r="Q39" s="141"/>
-      <c r="R39" s="141"/>
-      <c r="S39" s="141"/>
-      <c r="T39" s="142"/>
-      <c r="U39" s="1">
-        <v>3</v>
-      </c>
-      <c r="V39" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="W39" s="1"/>
-    </row>
-    <row r="40" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="103"/>
-      <c r="B40" s="104"/>
-      <c r="C40" s="104"/>
-      <c r="D40" s="104"/>
-      <c r="E40" s="104"/>
-      <c r="F40" s="104"/>
-      <c r="G40" s="104"/>
-      <c r="H40" s="104"/>
-      <c r="I40" s="104"/>
-      <c r="J40" s="104"/>
-      <c r="K40" s="104"/>
-      <c r="L40" s="104"/>
-      <c r="M40" s="104"/>
-      <c r="N40" s="104"/>
-      <c r="O40" s="104"/>
-      <c r="P40" s="104"/>
-      <c r="Q40" s="104"/>
-      <c r="R40" s="104"/>
-      <c r="S40" s="104"/>
-      <c r="T40" s="104"/>
-      <c r="U40" s="1"/>
-      <c r="V40" s="1"/>
-      <c r="W40" s="1"/>
-    </row>
-    <row r="41" spans="1:23" ht="95.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="203" t="s">
-        <v>256</v>
-      </c>
-      <c r="B41" s="115"/>
-      <c r="C41" s="137" t="s">
-        <v>216</v>
-      </c>
-      <c r="D41" s="137" t="s">
-        <v>255</v>
-      </c>
-      <c r="E41" s="137" t="s">
-        <v>47</v>
-      </c>
-      <c r="F41" s="137">
-        <v>768</v>
-      </c>
-      <c r="G41" s="204" t="s">
-        <v>12</v>
-      </c>
-      <c r="H41" s="137"/>
-      <c r="I41" s="137"/>
-      <c r="J41" s="137" t="s">
-        <v>268</v>
-      </c>
-      <c r="K41" s="137" t="s">
-        <v>367</v>
-      </c>
-      <c r="L41" s="137" t="s">
-        <v>180</v>
-      </c>
-      <c r="M41" s="137" t="s">
-        <v>381</v>
-      </c>
-      <c r="N41" s="137" t="s">
-        <v>409</v>
-      </c>
-      <c r="O41" s="137"/>
-      <c r="P41" s="137"/>
-      <c r="Q41" s="137"/>
-      <c r="R41" s="137"/>
-      <c r="S41" s="137"/>
-      <c r="T41" s="138"/>
-      <c r="U41" s="1">
-        <v>5</v>
-      </c>
-      <c r="V41" s="1" t="s">
-        <v>299</v>
+      <c r="U41" s="285">
+        <v>240287</v>
+      </c>
+      <c r="V41" s="284" t="s">
+        <v>458</v>
       </c>
       <c r="W41" s="1"/>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A42" s="106"/>
-      <c r="B42" s="106"/>
-      <c r="C42" s="106"/>
-      <c r="D42" s="106"/>
-      <c r="E42" s="106"/>
-      <c r="F42" s="106"/>
-      <c r="G42" s="106"/>
-      <c r="H42" s="105"/>
-      <c r="I42" s="105"/>
-      <c r="J42" s="106"/>
-      <c r="K42" s="106"/>
-      <c r="L42" s="106"/>
-      <c r="M42" s="106"/>
-      <c r="N42" s="106"/>
-      <c r="O42" s="106"/>
-      <c r="P42" s="106"/>
-      <c r="Q42" s="106"/>
-      <c r="R42" s="106"/>
-      <c r="S42" s="106"/>
-      <c r="T42" s="106"/>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A42" s="105"/>
+      <c r="B42" s="105"/>
+      <c r="C42" s="105"/>
+      <c r="D42" s="105"/>
+      <c r="E42" s="105"/>
+      <c r="F42" s="105"/>
+      <c r="G42" s="105"/>
+      <c r="H42" s="104"/>
+      <c r="I42" s="104"/>
+      <c r="J42" s="105"/>
+      <c r="K42" s="105"/>
+      <c r="L42" s="105"/>
+      <c r="M42" s="105"/>
+      <c r="N42" s="105"/>
+      <c r="O42" s="105"/>
+      <c r="P42" s="105"/>
+      <c r="Q42" s="105"/>
+      <c r="R42" s="105"/>
+      <c r="S42" s="105"/>
+      <c r="T42" s="105"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="J1:T2"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="C1:E2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="F1:F2"/>
+  <mergeCells count="1">
     <mergeCell ref="W1:W2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A35:A36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -9554,50 +9594,50 @@
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.25" customWidth="1"/>
+    <col min="3" max="3" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="17.125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="27.42578125" customWidth="1"/>
-    <col min="7" max="7" width="28.42578125" customWidth="1"/>
-    <col min="8" max="8" width="32.140625" customWidth="1"/>
-    <col min="9" max="9" width="21.140625" customWidth="1"/>
-    <col min="10" max="10" width="21.85546875" customWidth="1"/>
-    <col min="11" max="11" width="20.5703125" customWidth="1"/>
-    <col min="12" max="12" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="27.375" customWidth="1"/>
+    <col min="7" max="7" width="28.375" customWidth="1"/>
+    <col min="8" max="8" width="32.125" customWidth="1"/>
+    <col min="9" max="9" width="21.125" customWidth="1"/>
+    <col min="10" max="10" width="21.875" customWidth="1"/>
+    <col min="11" max="11" width="20.625" customWidth="1"/>
+    <col min="12" max="12" width="18.125" customWidth="1"/>
     <col min="13" max="14" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="251" t="s">
+      <c r="B1" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="252"/>
-      <c r="D1" s="252"/>
-      <c r="E1" s="252"/>
-      <c r="F1" s="252"/>
-      <c r="G1" s="252"/>
-      <c r="H1" s="252"/>
+      <c r="C1" s="287"/>
+      <c r="D1" s="287"/>
+      <c r="E1" s="287"/>
+      <c r="F1" s="287"/>
+      <c r="G1" s="287"/>
+      <c r="H1" s="287"/>
       <c r="I1" s="51"/>
       <c r="J1" s="51"/>
       <c r="K1" s="51"/>
-      <c r="L1" s="274" t="s">
+      <c r="L1" s="309" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="276" t="s">
+      <c r="M1" s="311" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="278" t="s">
+      <c r="N1" s="313" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>0</v>
       </c>
@@ -9610,7 +9650,7 @@
         <v>88</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>459</v>
+        <v>405</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>76</v>
@@ -9627,11 +9667,11 @@
       <c r="K2" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="L2" s="275"/>
-      <c r="M2" s="277"/>
-      <c r="N2" s="279"/>
-    </row>
-    <row r="3" spans="1:14" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L2" s="310"/>
+      <c r="M2" s="312"/>
+      <c r="N2" s="314"/>
+    </row>
+    <row r="3" spans="1:14" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -9661,7 +9701,7 @@
       </c>
       <c r="N3" s="40"/>
     </row>
-    <row r="4" spans="1:14" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>6</v>
       </c>
@@ -9689,7 +9729,7 @@
       <c r="M4" s="5"/>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="1:14" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>7</v>
       </c>
@@ -9715,7 +9755,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>8</v>
       </c>
@@ -9743,7 +9783,7 @@
       <c r="M6" s="5"/>
       <c r="N6" s="6"/>
     </row>
-    <row r="7" spans="1:14" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
         <v>9</v>
       </c>
@@ -9781,7 +9821,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
         <v>10</v>
       </c>
@@ -9794,7 +9834,7 @@
         <v>92</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>460</v>
+        <v>406</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>77</v>
@@ -9813,26 +9853,26 @@
       <c r="M8" s="5"/>
       <c r="N8" s="6"/>
     </row>
-    <row r="9" spans="1:14" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="63" t="s">
-        <v>456</v>
+        <v>402</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11" t="s">
-        <v>461</v>
+        <v>407</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>461</v>
+        <v>407</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>457</v>
+        <v>403</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>458</v>
+        <v>404</v>
       </c>
       <c r="I9" s="11"/>
       <c r="J9" s="56" t="s">
@@ -9845,7 +9885,7 @@
       </c>
       <c r="N9" s="6"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -9858,23 +9898,23 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="253"/>
-      <c r="C11" s="253"/>
-      <c r="D11" s="253"/>
-      <c r="E11" s="253"/>
-      <c r="F11" s="253"/>
-      <c r="G11" s="253"/>
-      <c r="H11" s="253"/>
-      <c r="I11" s="253"/>
-      <c r="J11" s="253"/>
-      <c r="K11" s="253"/>
-    </row>
-    <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="288"/>
+      <c r="C11" s="288"/>
+      <c r="D11" s="288"/>
+      <c r="E11" s="288"/>
+      <c r="F11" s="288"/>
+      <c r="G11" s="288"/>
+      <c r="H11" s="288"/>
+      <c r="I11" s="288"/>
+      <c r="J11" s="288"/>
+      <c r="K11" s="288"/>
+    </row>
+    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>23</v>
       </c>
@@ -9884,12 +9924,12 @@
       <c r="C13" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="260" t="s">
+      <c r="D13" s="295" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="261"/>
-    </row>
-    <row r="14" spans="1:14" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="296"/>
+    </row>
+    <row r="14" spans="1:14" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="46" t="s">
         <v>68</v>
       </c>
@@ -9899,10 +9939,10 @@
       <c r="C14" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="282"/>
-      <c r="E14" s="283"/>
-    </row>
-    <row r="15" spans="1:14" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="317"/>
+      <c r="E14" s="318"/>
+    </row>
+    <row r="15" spans="1:14" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="22" t="s">
         <v>70</v>
       </c>
@@ -9912,22 +9952,22 @@
       <c r="C15" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="264"/>
-      <c r="E15" s="265"/>
-    </row>
-    <row r="16" spans="1:14" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="299"/>
+      <c r="E15" s="300"/>
+    </row>
+    <row r="16" spans="1:14" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="43"/>
       <c r="B16" s="45"/>
       <c r="C16" s="44"/>
-      <c r="D16" s="284"/>
-      <c r="E16" s="285"/>
-    </row>
-    <row r="17" spans="1:5" ht="104.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="319"/>
+      <c r="E16" s="320"/>
+    </row>
+    <row r="17" spans="1:5" ht="104.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="25"/>
       <c r="B17" s="42"/>
       <c r="C17" s="49"/>
-      <c r="D17" s="280"/>
-      <c r="E17" s="281"/>
+      <c r="D17" s="315"/>
+      <c r="E17" s="316"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -9956,72 +9996,72 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" customWidth="1"/>
+    <col min="1" max="1" width="20.625" customWidth="1"/>
+    <col min="2" max="2" width="25.625" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.75" customWidth="1"/>
+    <col min="5" max="5" width="19.75" customWidth="1"/>
+    <col min="6" max="6" width="19.875" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" customWidth="1"/>
-    <col min="10" max="10" width="22.7109375" customWidth="1"/>
-    <col min="11" max="11" width="23.7109375" customWidth="1"/>
+    <col min="8" max="8" width="20.75" customWidth="1"/>
+    <col min="9" max="9" width="21.875" customWidth="1"/>
+    <col min="10" max="10" width="22.75" customWidth="1"/>
+    <col min="11" max="11" width="23.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="251" t="s">
+      <c r="B1" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="252"/>
-      <c r="D1" s="252"/>
-      <c r="E1" s="252"/>
-      <c r="F1" s="252"/>
-      <c r="G1" s="252"/>
-      <c r="H1" s="252"/>
+      <c r="C1" s="287"/>
+      <c r="D1" s="287"/>
+      <c r="E1" s="287"/>
+      <c r="F1" s="287"/>
+      <c r="G1" s="287"/>
+      <c r="H1" s="287"/>
       <c r="I1" s="51"/>
       <c r="J1" s="51"/>
       <c r="K1" s="51"/>
-      <c r="L1" s="287"/>
-      <c r="M1" s="286"/>
-      <c r="N1" s="286"/>
-    </row>
-    <row r="2" spans="1:14" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L1" s="322"/>
+      <c r="M1" s="321"/>
+      <c r="N1" s="321"/>
+    </row>
+    <row r="2" spans="1:14" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="C2" s="66" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="D2" s="66" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="E2" s="66"/>
-      <c r="F2" s="205" t="s">
-        <v>305</v>
+      <c r="F2" s="204" t="s">
+        <v>295</v>
       </c>
       <c r="G2" s="66" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="H2" s="86" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="I2" s="66"/>
       <c r="J2" s="66"/>
       <c r="K2" s="86"/>
-      <c r="L2" s="287"/>
-      <c r="M2" s="286"/>
-      <c r="N2" s="286"/>
-    </row>
-    <row r="3" spans="1:14" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L2" s="322"/>
+      <c r="M2" s="321"/>
+      <c r="N2" s="321"/>
+    </row>
+    <row r="3" spans="1:14" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -10037,15 +10077,15 @@
       <c r="I3" s="67"/>
       <c r="J3" s="39"/>
       <c r="K3" s="67"/>
-      <c r="L3" s="211"/>
+      <c r="L3" s="210"/>
       <c r="M3" s="68"/>
-      <c r="N3" s="206"/>
-    </row>
-    <row r="4" spans="1:14" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N3" s="205"/>
+    </row>
+    <row r="4" spans="1:14" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="208" t="s">
+      <c r="B4" s="207" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="39" t="s">
@@ -10063,11 +10103,11 @@
       <c r="I4" s="39"/>
       <c r="J4" s="39"/>
       <c r="K4" s="67"/>
-      <c r="L4" s="212"/>
-      <c r="M4" s="206"/>
-      <c r="N4" s="206"/>
-    </row>
-    <row r="5" spans="1:14" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L4" s="211"/>
+      <c r="M4" s="205"/>
+      <c r="N4" s="205"/>
+    </row>
+    <row r="5" spans="1:14" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>7</v>
       </c>
@@ -10083,11 +10123,11 @@
       <c r="I5" s="67"/>
       <c r="J5" s="68"/>
       <c r="K5" s="39"/>
-      <c r="L5" s="211"/>
-      <c r="M5" s="206"/>
+      <c r="L5" s="210"/>
+      <c r="M5" s="205"/>
       <c r="N5" s="68"/>
     </row>
-    <row r="6" spans="1:14" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>8</v>
       </c>
@@ -10107,11 +10147,11 @@
       <c r="I6" s="69"/>
       <c r="J6" s="69"/>
       <c r="K6" s="69"/>
-      <c r="L6" s="211"/>
-      <c r="M6" s="206"/>
-      <c r="N6" s="206"/>
-    </row>
-    <row r="7" spans="1:14" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L6" s="210"/>
+      <c r="M6" s="205"/>
+      <c r="N6" s="205"/>
+    </row>
+    <row r="7" spans="1:14" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
         <v>9</v>
       </c>
@@ -10125,116 +10165,116 @@
       <c r="I7" s="70"/>
       <c r="J7" s="70"/>
       <c r="K7" s="70"/>
-      <c r="L7" s="213"/>
-      <c r="M7" s="209"/>
-      <c r="N7" s="209"/>
-    </row>
-    <row r="8" spans="1:14" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L7" s="212"/>
+      <c r="M7" s="208"/>
+      <c r="N7" s="208"/>
+    </row>
+    <row r="8" spans="1:14" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="63" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="C8" s="71" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="D8" s="71" t="s">
-        <v>455</v>
+        <v>401</v>
       </c>
       <c r="E8" s="71"/>
       <c r="F8" s="71" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="G8" s="71" t="s">
         <v>180</v>
       </c>
       <c r="H8" s="71" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="I8" s="71"/>
       <c r="J8" s="71"/>
       <c r="K8" s="71"/>
-      <c r="L8" s="211"/>
-      <c r="M8" s="206"/>
-      <c r="N8" s="206"/>
-    </row>
-    <row r="9" spans="1:14" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L8" s="210"/>
+      <c r="M8" s="205"/>
+      <c r="N8" s="205"/>
+    </row>
+    <row r="9" spans="1:14" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="63" t="s">
-        <v>415</v>
+        <v>361</v>
       </c>
       <c r="C9" s="71" t="s">
-        <v>423</v>
+        <v>369</v>
       </c>
       <c r="D9" s="71" t="s">
-        <v>454</v>
+        <v>400</v>
       </c>
       <c r="E9" s="71"/>
       <c r="F9" s="71" t="s">
-        <v>440</v>
+        <v>386</v>
       </c>
       <c r="G9" s="71" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="H9" s="71" t="s">
-        <v>314</v>
-      </c>
-      <c r="I9" s="207"/>
+        <v>304</v>
+      </c>
+      <c r="I9" s="206"/>
       <c r="J9" s="71"/>
       <c r="K9" s="71"/>
-      <c r="L9" s="211"/>
-      <c r="M9" s="206"/>
-      <c r="N9" s="206"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L9" s="210"/>
+      <c r="M9" s="205"/>
+      <c r="N9" s="205"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>466</v>
+        <v>412</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>467</v>
+        <v>413</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>468</v>
+        <v>414</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>469</v>
+        <v>415</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>470</v>
+        <v>416</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="214"/>
-      <c r="M10" s="210"/>
-      <c r="N10" s="210"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L10" s="213"/>
+      <c r="M10" s="209"/>
+      <c r="N10" s="209"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="253"/>
-      <c r="C11" s="253"/>
-      <c r="D11" s="253"/>
-      <c r="E11" s="253"/>
-      <c r="F11" s="253"/>
-      <c r="G11" s="253"/>
-      <c r="H11" s="253"/>
-      <c r="I11" s="253"/>
-      <c r="J11" s="253"/>
-      <c r="K11" s="253"/>
-      <c r="L11" s="214"/>
-      <c r="M11" s="210"/>
-      <c r="N11" s="210"/>
-    </row>
-    <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="288"/>
+      <c r="C11" s="288"/>
+      <c r="D11" s="288"/>
+      <c r="E11" s="288"/>
+      <c r="F11" s="288"/>
+      <c r="G11" s="288"/>
+      <c r="H11" s="288"/>
+      <c r="I11" s="288"/>
+      <c r="J11" s="288"/>
+      <c r="K11" s="288"/>
+      <c r="L11" s="213"/>
+      <c r="M11" s="209"/>
+      <c r="N11" s="209"/>
+    </row>
+    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>23</v>
       </c>
@@ -10244,28 +10284,28 @@
       <c r="C13" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="260" t="s">
+      <c r="D13" s="295" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="261"/>
-    </row>
-    <row r="14" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="296"/>
+    </row>
+    <row r="14" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="21"/>
-      <c r="D14" s="262"/>
-      <c r="E14" s="263"/>
-    </row>
-    <row r="15" spans="1:14" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="297"/>
+      <c r="E14" s="298"/>
+    </row>
+    <row r="15" spans="1:14" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="22" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="23"/>
       <c r="C15" s="24"/>
-      <c r="D15" s="264"/>
-      <c r="E15" s="265"/>
+      <c r="D15" s="299"/>
+      <c r="E15" s="300"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -10291,96 +10331,96 @@
       <selection activeCell="J2" sqref="J2:K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" customWidth="1"/>
+    <col min="1" max="1" width="20.625" customWidth="1"/>
+    <col min="2" max="2" width="25.625" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.75" customWidth="1"/>
+    <col min="5" max="5" width="19.75" customWidth="1"/>
+    <col min="6" max="6" width="19.875" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" customWidth="1"/>
-    <col min="10" max="10" width="22.7109375" customWidth="1"/>
-    <col min="11" max="11" width="23.7109375" customWidth="1"/>
+    <col min="8" max="8" width="20.75" customWidth="1"/>
+    <col min="9" max="9" width="21.875" customWidth="1"/>
+    <col min="10" max="10" width="22.75" customWidth="1"/>
+    <col min="11" max="11" width="23.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="251" t="s">
+      <c r="B1" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="252"/>
-      <c r="D1" s="252"/>
-      <c r="E1" s="252"/>
-      <c r="F1" s="252"/>
-      <c r="G1" s="252"/>
-      <c r="H1" s="252"/>
+      <c r="C1" s="287"/>
+      <c r="D1" s="287"/>
+      <c r="E1" s="287"/>
+      <c r="F1" s="287"/>
+      <c r="G1" s="287"/>
+      <c r="H1" s="287"/>
       <c r="I1" s="51"/>
       <c r="J1" s="51"/>
       <c r="K1" s="51"/>
-      <c r="L1" s="274" t="s">
+      <c r="L1" s="309" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="276" t="s">
+      <c r="M1" s="311" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="278" t="s">
+      <c r="N1" s="313" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="37"/>
       <c r="I2" s="3" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="J2" s="52" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="K2" s="52" t="s">
-        <v>320</v>
-      </c>
-      <c r="L2" s="275"/>
-      <c r="M2" s="277"/>
-      <c r="N2" s="279"/>
-    </row>
-    <row r="3" spans="1:14" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>310</v>
+      </c>
+      <c r="L2" s="310"/>
+      <c r="M2" s="312"/>
+      <c r="N2" s="314"/>
+    </row>
+    <row r="3" spans="1:14" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="208" t="s">
+      <c r="B3" s="207" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="7"/>
-      <c r="D3" s="215"/>
-      <c r="E3" s="215" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="215"/>
-      <c r="G3" s="215"/>
-      <c r="H3" s="215"/>
-      <c r="I3" s="215" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="216"/>
+      <c r="D3" s="214"/>
+      <c r="E3" s="214" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="214"/>
+      <c r="G3" s="214"/>
+      <c r="H3" s="214"/>
+      <c r="I3" s="214" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="215"/>
       <c r="K3" s="75"/>
       <c r="L3" s="38"/>
       <c r="M3" s="39" t="s">
@@ -10388,21 +10428,21 @@
       </c>
       <c r="N3" s="40"/>
     </row>
-    <row r="4" spans="1:14" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="61"/>
       <c r="C4" s="7"/>
-      <c r="D4" s="215"/>
-      <c r="E4" s="215"/>
-      <c r="F4" s="215" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="215"/>
-      <c r="H4" s="215"/>
-      <c r="I4" s="215"/>
-      <c r="J4" s="216" t="s">
+      <c r="D4" s="214"/>
+      <c r="E4" s="214"/>
+      <c r="F4" s="214" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="214"/>
+      <c r="H4" s="214"/>
+      <c r="I4" s="214"/>
+      <c r="J4" s="215" t="s">
         <v>12</v>
       </c>
       <c r="K4" s="75"/>
@@ -10412,19 +10452,19 @@
       <c r="M4" s="5"/>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="1:14" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="61"/>
       <c r="C5" s="6"/>
-      <c r="D5" s="215"/>
+      <c r="D5" s="214"/>
       <c r="E5" s="16"/>
-      <c r="F5" s="215"/>
-      <c r="G5" s="215"/>
-      <c r="H5" s="215"/>
-      <c r="I5" s="215"/>
-      <c r="J5" s="216" t="s">
+      <c r="F5" s="214"/>
+      <c r="G5" s="214"/>
+      <c r="H5" s="214"/>
+      <c r="I5" s="214"/>
+      <c r="J5" s="215" t="s">
         <v>12</v>
       </c>
       <c r="K5" s="75"/>
@@ -10434,7 +10474,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>8</v>
       </c>
@@ -10442,7 +10482,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="6"/>
-      <c r="D6" s="217"/>
+      <c r="D6" s="216"/>
       <c r="E6" s="16">
         <v>2</v>
       </c>
@@ -10454,7 +10494,7 @@
       <c r="I6" s="16">
         <v>2</v>
       </c>
-      <c r="J6" s="218"/>
+      <c r="J6" s="217"/>
       <c r="K6" s="83">
         <v>3</v>
       </c>
@@ -10462,20 +10502,20 @@
       <c r="M6" s="5"/>
       <c r="N6" s="6"/>
     </row>
-    <row r="7" spans="1:14" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="62"/>
       <c r="C7" s="10"/>
-      <c r="D7" s="219"/>
-      <c r="E7" s="219"/>
-      <c r="F7" s="220"/>
-      <c r="G7" s="219"/>
-      <c r="H7" s="220"/>
-      <c r="I7" s="220"/>
-      <c r="J7" s="221"/>
-      <c r="K7" s="222"/>
+      <c r="D7" s="218"/>
+      <c r="E7" s="218"/>
+      <c r="F7" s="219"/>
+      <c r="G7" s="218"/>
+      <c r="H7" s="219"/>
+      <c r="I7" s="219"/>
+      <c r="J7" s="220"/>
+      <c r="K7" s="221"/>
       <c r="L7" s="8" t="s">
         <v>16</v>
       </c>
@@ -10486,61 +10526,61 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="63" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="C8" s="13"/>
-      <c r="D8" s="223"/>
-      <c r="E8" s="223" t="s">
-        <v>322</v>
-      </c>
-      <c r="F8" s="223" t="s">
-        <v>323</v>
-      </c>
-      <c r="G8" s="223"/>
-      <c r="H8" s="223"/>
-      <c r="I8" s="223" t="s">
-        <v>324</v>
-      </c>
-      <c r="J8" s="224" t="s">
-        <v>325</v>
+      <c r="D8" s="222"/>
+      <c r="E8" s="222" t="s">
+        <v>312</v>
+      </c>
+      <c r="F8" s="222" t="s">
+        <v>313</v>
+      </c>
+      <c r="G8" s="222"/>
+      <c r="H8" s="222"/>
+      <c r="I8" s="222" t="s">
+        <v>314</v>
+      </c>
+      <c r="J8" s="223" t="s">
+        <v>315</v>
       </c>
       <c r="K8" s="85" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="6"/>
     </row>
-    <row r="9" spans="1:14" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="63" t="s">
-        <v>451</v>
+        <v>397</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="16"/>
-      <c r="E9" s="223" t="s">
-        <v>453</v>
-      </c>
-      <c r="F9" s="223" t="s">
-        <v>452</v>
-      </c>
-      <c r="G9" s="223"/>
-      <c r="H9" s="223"/>
-      <c r="I9" s="223" t="s">
-        <v>414</v>
-      </c>
-      <c r="J9" s="224" t="s">
-        <v>326</v>
+      <c r="E9" s="222" t="s">
+        <v>399</v>
+      </c>
+      <c r="F9" s="222" t="s">
+        <v>398</v>
+      </c>
+      <c r="G9" s="222"/>
+      <c r="H9" s="222"/>
+      <c r="I9" s="222" t="s">
+        <v>360</v>
+      </c>
+      <c r="J9" s="223" t="s">
+        <v>316</v>
       </c>
       <c r="K9" s="85" t="s">
-        <v>415</v>
+        <v>361</v>
       </c>
       <c r="L9" s="5"/>
       <c r="M9" s="5" t="s">
@@ -10548,44 +10588,44 @@
       </c>
       <c r="N9" s="6"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>471</v>
+        <v>417</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>473</v>
+        <v>419</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>474</v>
+        <v>420</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
-        <v>472</v>
+        <v>418</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="253"/>
-      <c r="C11" s="253"/>
-      <c r="D11" s="253"/>
-      <c r="E11" s="253"/>
-      <c r="F11" s="253"/>
-      <c r="G11" s="253"/>
-      <c r="H11" s="253"/>
-      <c r="I11" s="253"/>
-      <c r="J11" s="253"/>
-      <c r="K11" s="253"/>
-    </row>
-    <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="288"/>
+      <c r="C11" s="288"/>
+      <c r="D11" s="288"/>
+      <c r="E11" s="288"/>
+      <c r="F11" s="288"/>
+      <c r="G11" s="288"/>
+      <c r="H11" s="288"/>
+      <c r="I11" s="288"/>
+      <c r="J11" s="288"/>
+      <c r="K11" s="288"/>
+    </row>
+    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>23</v>
       </c>
@@ -10595,12 +10635,12 @@
       <c r="C13" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="260" t="s">
+      <c r="D13" s="295" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="261"/>
-    </row>
-    <row r="14" spans="1:14" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="296"/>
+    </row>
+    <row r="14" spans="1:14" ht="115.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
         <v>66</v>
       </c>
@@ -10610,17 +10650,17 @@
       <c r="C14" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="262"/>
-      <c r="E14" s="263"/>
-    </row>
-    <row r="15" spans="1:14" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="297"/>
+      <c r="E14" s="298"/>
+    </row>
+    <row r="15" spans="1:14" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="22" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="23"/>
       <c r="C15" s="24"/>
-      <c r="D15" s="264"/>
-      <c r="E15" s="265"/>
+      <c r="D15" s="299"/>
+      <c r="E15" s="300"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -10647,48 +10687,48 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" customWidth="1"/>
+    <col min="1" max="1" width="20.625" customWidth="1"/>
+    <col min="2" max="2" width="25.625" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.75" customWidth="1"/>
+    <col min="5" max="5" width="19.75" customWidth="1"/>
+    <col min="6" max="6" width="19.875" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" customWidth="1"/>
-    <col min="10" max="10" width="22.7109375" customWidth="1"/>
-    <col min="11" max="11" width="23.7109375" customWidth="1"/>
+    <col min="8" max="8" width="20.75" customWidth="1"/>
+    <col min="9" max="9" width="21.875" customWidth="1"/>
+    <col min="10" max="10" width="22.75" customWidth="1"/>
+    <col min="11" max="11" width="23.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="251" t="s">
+      <c r="B1" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="252"/>
-      <c r="D1" s="252"/>
-      <c r="E1" s="252"/>
-      <c r="F1" s="252"/>
-      <c r="G1" s="252"/>
-      <c r="H1" s="252"/>
+      <c r="C1" s="287"/>
+      <c r="D1" s="287"/>
+      <c r="E1" s="287"/>
+      <c r="F1" s="287"/>
+      <c r="G1" s="287"/>
+      <c r="H1" s="287"/>
       <c r="I1" s="51"/>
       <c r="J1" s="51"/>
       <c r="K1" s="51"/>
-      <c r="L1" s="274" t="s">
+      <c r="L1" s="309" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="276" t="s">
+      <c r="M1" s="311" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="278" t="s">
+      <c r="N1" s="313" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>0</v>
       </c>
@@ -10716,11 +10756,11 @@
       <c r="K2" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="L2" s="275"/>
-      <c r="M2" s="277"/>
-      <c r="N2" s="279"/>
-    </row>
-    <row r="3" spans="1:14" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L2" s="310"/>
+      <c r="M2" s="312"/>
+      <c r="N2" s="314"/>
+    </row>
+    <row r="3" spans="1:14" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -10754,7 +10794,7 @@
       </c>
       <c r="N3" s="40"/>
     </row>
-    <row r="4" spans="1:14" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>6</v>
       </c>
@@ -10786,7 +10826,7 @@
       <c r="M4" s="5"/>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="1:14" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>7</v>
       </c>
@@ -10812,7 +10852,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>8</v>
       </c>
@@ -10844,7 +10884,7 @@
       <c r="M6" s="5"/>
       <c r="N6" s="6"/>
     </row>
-    <row r="7" spans="1:14" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
         <v>9</v>
       </c>
@@ -10882,7 +10922,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="103.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="103.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
         <v>10</v>
       </c>
@@ -10910,33 +10950,33 @@
       <c r="M8" s="5"/>
       <c r="N8" s="6"/>
     </row>
-    <row r="9" spans="1:14" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="63" t="s">
-        <v>415</v>
+        <v>361</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>414</v>
+        <v>360</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11" t="s">
-        <v>448</v>
+        <v>394</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>449</v>
+        <v>395</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="13"/>
       <c r="I9" s="56" t="s">
-        <v>450</v>
+        <v>396</v>
       </c>
       <c r="J9" s="56" t="s">
-        <v>450</v>
+        <v>396</v>
       </c>
       <c r="K9" s="56" t="s">
-        <v>450</v>
+        <v>396</v>
       </c>
       <c r="L9" s="5"/>
       <c r="M9" s="5" t="s">
@@ -10944,20 +10984,20 @@
       </c>
       <c r="N9" s="6"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="C10" s="322" t="s">
-        <v>473</v>
+        <v>421</v>
+      </c>
+      <c r="C10" s="283" t="s">
+        <v>419</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>476</v>
+        <v>422</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>477</v>
+        <v>423</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -10965,23 +11005,23 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="253"/>
-      <c r="C11" s="253"/>
-      <c r="D11" s="253"/>
-      <c r="E11" s="253"/>
-      <c r="F11" s="253"/>
-      <c r="G11" s="253"/>
-      <c r="H11" s="253"/>
-      <c r="I11" s="253"/>
-      <c r="J11" s="253"/>
-      <c r="K11" s="253"/>
-    </row>
-    <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="288"/>
+      <c r="C11" s="288"/>
+      <c r="D11" s="288"/>
+      <c r="E11" s="288"/>
+      <c r="F11" s="288"/>
+      <c r="G11" s="288"/>
+      <c r="H11" s="288"/>
+      <c r="I11" s="288"/>
+      <c r="J11" s="288"/>
+      <c r="K11" s="288"/>
+    </row>
+    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>23</v>
       </c>
@@ -10991,12 +11031,12 @@
       <c r="C13" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="260" t="s">
+      <c r="D13" s="295" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="261"/>
-    </row>
-    <row r="14" spans="1:14" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="296"/>
+    </row>
+    <row r="14" spans="1:14" ht="140.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
         <v>51</v>
       </c>
@@ -11004,10 +11044,10 @@
       <c r="C14" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="262"/>
-      <c r="E14" s="263"/>
-    </row>
-    <row r="15" spans="1:14" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="297"/>
+      <c r="E14" s="298"/>
+    </row>
+    <row r="15" spans="1:14" ht="136.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="22" t="s">
         <v>28</v>
       </c>
@@ -11015,10 +11055,10 @@
       <c r="C15" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="264"/>
-      <c r="E15" s="265"/>
-    </row>
-    <row r="16" spans="1:14" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="299"/>
+      <c r="E15" s="300"/>
+    </row>
+    <row r="16" spans="1:14" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
         <v>28</v>
       </c>
@@ -11026,10 +11066,10 @@
       <c r="C16" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="266"/>
-      <c r="E16" s="267"/>
-    </row>
-    <row r="17" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="301"/>
+      <c r="E16" s="302"/>
+    </row>
+    <row r="17" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="22" t="s">
         <v>28</v>
       </c>
@@ -11037,8 +11077,8 @@
       <c r="C17" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="264"/>
-      <c r="E17" s="265"/>
+      <c r="D17" s="299"/>
+      <c r="E17" s="300"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -11066,48 +11106,48 @@
       <selection activeCell="J2" sqref="J2:J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" customWidth="1"/>
+    <col min="1" max="1" width="20.625" customWidth="1"/>
+    <col min="2" max="2" width="25.625" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.75" customWidth="1"/>
+    <col min="5" max="5" width="19.75" customWidth="1"/>
+    <col min="6" max="6" width="19.875" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" customWidth="1"/>
-    <col min="9" max="9" width="45.7109375" customWidth="1"/>
-    <col min="10" max="10" width="22.7109375" customWidth="1"/>
-    <col min="11" max="11" width="23.7109375" customWidth="1"/>
+    <col min="8" max="8" width="20.75" customWidth="1"/>
+    <col min="9" max="9" width="45.75" customWidth="1"/>
+    <col min="10" max="10" width="22.75" customWidth="1"/>
+    <col min="11" max="11" width="23.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="251" t="s">
+      <c r="B1" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="252"/>
-      <c r="D1" s="252"/>
-      <c r="E1" s="252"/>
-      <c r="F1" s="252"/>
-      <c r="G1" s="252"/>
-      <c r="H1" s="252"/>
+      <c r="C1" s="287"/>
+      <c r="D1" s="287"/>
+      <c r="E1" s="287"/>
+      <c r="F1" s="287"/>
+      <c r="G1" s="287"/>
+      <c r="H1" s="287"/>
       <c r="I1" s="51"/>
       <c r="J1" s="51"/>
       <c r="K1" s="51"/>
-      <c r="L1" s="274" t="s">
+      <c r="L1" s="309" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="276" t="s">
+      <c r="M1" s="311" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="278" t="s">
+      <c r="N1" s="313" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>0</v>
       </c>
@@ -11137,11 +11177,11 @@
       <c r="K2" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="L2" s="275"/>
-      <c r="M2" s="277"/>
-      <c r="N2" s="279"/>
-    </row>
-    <row r="3" spans="1:14" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L2" s="310"/>
+      <c r="M2" s="312"/>
+      <c r="N2" s="314"/>
+    </row>
+    <row r="3" spans="1:14" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -11173,7 +11213,7 @@
       <c r="M3" s="39"/>
       <c r="N3" s="40"/>
     </row>
-    <row r="4" spans="1:14" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>6</v>
       </c>
@@ -11193,7 +11233,7 @@
       <c r="M4" s="5"/>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="1:14" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>7</v>
       </c>
@@ -11213,7 +11253,7 @@
       <c r="M5" s="5"/>
       <c r="N5" s="7"/>
     </row>
-    <row r="6" spans="1:14" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>8</v>
       </c>
@@ -11241,7 +11281,7 @@
       <c r="M6" s="5"/>
       <c r="N6" s="6"/>
     </row>
-    <row r="7" spans="1:14" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
         <v>9</v>
       </c>
@@ -11273,7 +11313,7 @@
       <c r="M7" s="8"/>
       <c r="N7" s="10"/>
     </row>
-    <row r="8" spans="1:14" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
         <v>10</v>
       </c>
@@ -11284,7 +11324,7 @@
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11" t="s">
-        <v>444</v>
+        <v>390</v>
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="13"/>
@@ -11299,31 +11339,31 @@
       <c r="M8" s="5"/>
       <c r="N8" s="6"/>
     </row>
-    <row r="9" spans="1:14" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="63" t="s">
-        <v>441</v>
+        <v>387</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>442</v>
+        <v>388</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>440</v>
+        <v>386</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>443</v>
+        <v>389</v>
       </c>
       <c r="F9" s="76" t="s">
-        <v>445</v>
+        <v>391</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="11" t="s">
-        <v>446</v>
+        <v>392</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>447</v>
+        <v>393</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="56" t="s">
@@ -11333,50 +11373,50 @@
       <c r="M9" s="5"/>
       <c r="N9" s="6"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>478</v>
+        <v>424</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="D10" s="250" t="s">
-        <v>480</v>
-      </c>
-      <c r="E10" s="250" t="s">
-        <v>481</v>
+        <v>425</v>
+      </c>
+      <c r="D10" s="249" t="s">
+        <v>426</v>
+      </c>
+      <c r="E10" s="249" t="s">
+        <v>427</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>482</v>
+        <v>428</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>483</v>
+        <v>429</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="253" t="s">
+      <c r="B11" s="288" t="s">
         <v>117</v>
       </c>
-      <c r="C11" s="253"/>
-      <c r="D11" s="253"/>
-      <c r="E11" s="253"/>
-      <c r="F11" s="253"/>
-      <c r="G11" s="253"/>
-      <c r="H11" s="253"/>
-      <c r="I11" s="253"/>
-      <c r="J11" s="253"/>
-      <c r="K11" s="253"/>
-    </row>
-    <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="288"/>
+      <c r="D11" s="288"/>
+      <c r="E11" s="288"/>
+      <c r="F11" s="288"/>
+      <c r="G11" s="288"/>
+      <c r="H11" s="288"/>
+      <c r="I11" s="288"/>
+      <c r="J11" s="288"/>
+      <c r="K11" s="288"/>
+    </row>
+    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>23</v>
       </c>
@@ -11386,12 +11426,12 @@
       <c r="C13" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="260" t="s">
+      <c r="D13" s="295" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="261"/>
-    </row>
-    <row r="14" spans="1:14" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="296"/>
+    </row>
+    <row r="14" spans="1:14" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
         <v>62</v>
       </c>
@@ -11401,10 +11441,10 @@
       <c r="C14" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="262"/>
-      <c r="E14" s="263"/>
-    </row>
-    <row r="15" spans="1:14" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="297"/>
+      <c r="E14" s="298"/>
+    </row>
+    <row r="15" spans="1:14" ht="126.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="22" t="s">
         <v>64</v>
       </c>
@@ -11414,8 +11454,8 @@
       <c r="C15" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="D15" s="264"/>
-      <c r="E15" s="265"/>
+      <c r="D15" s="299"/>
+      <c r="E15" s="300"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -11441,50 +11481,50 @@
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" customWidth="1"/>
+    <col min="1" max="1" width="20.625" customWidth="1"/>
+    <col min="2" max="2" width="25.625" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.75" customWidth="1"/>
+    <col min="5" max="5" width="19.75" customWidth="1"/>
+    <col min="6" max="6" width="19.875" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" customWidth="1"/>
-    <col min="10" max="10" width="22.7109375" customWidth="1"/>
-    <col min="11" max="11" width="23.7109375" customWidth="1"/>
+    <col min="8" max="8" width="20.75" customWidth="1"/>
+    <col min="9" max="9" width="21.875" customWidth="1"/>
+    <col min="10" max="10" width="22.75" customWidth="1"/>
+    <col min="11" max="11" width="23.75" customWidth="1"/>
     <col min="12" max="13" width="18" customWidth="1"/>
-    <col min="14" max="14" width="17.85546875" customWidth="1"/>
+    <col min="14" max="14" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="251" t="s">
+      <c r="B1" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="252"/>
-      <c r="D1" s="252"/>
-      <c r="E1" s="252"/>
-      <c r="F1" s="252"/>
-      <c r="G1" s="252"/>
-      <c r="H1" s="252"/>
+      <c r="C1" s="287"/>
+      <c r="D1" s="287"/>
+      <c r="E1" s="287"/>
+      <c r="F1" s="287"/>
+      <c r="G1" s="287"/>
+      <c r="H1" s="287"/>
       <c r="I1" s="51"/>
       <c r="J1" s="51"/>
       <c r="K1" s="51"/>
-      <c r="L1" s="274" t="s">
+      <c r="L1" s="309" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="276" t="s">
+      <c r="M1" s="311" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="278" t="s">
+      <c r="N1" s="313" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>0</v>
       </c>
@@ -11512,11 +11552,11 @@
       <c r="K2" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="L2" s="275"/>
-      <c r="M2" s="277"/>
-      <c r="N2" s="279"/>
-    </row>
-    <row r="3" spans="1:14" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L2" s="310"/>
+      <c r="M2" s="312"/>
+      <c r="N2" s="314"/>
+    </row>
+    <row r="3" spans="1:14" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -11540,7 +11580,7 @@
       </c>
       <c r="N3" s="40"/>
     </row>
-    <row r="4" spans="1:14" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>6</v>
       </c>
@@ -11566,7 +11606,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>7</v>
       </c>
@@ -11590,7 +11630,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>8</v>
       </c>
@@ -11618,7 +11658,7 @@
       <c r="M6" s="5"/>
       <c r="N6" s="6"/>
     </row>
-    <row r="7" spans="1:14" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
         <v>9</v>
       </c>
@@ -11654,7 +11694,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="113.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="113.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
         <v>10</v>
       </c>
@@ -11682,31 +11722,31 @@
       <c r="M8" s="5"/>
       <c r="N8" s="6"/>
     </row>
-    <row r="9" spans="1:14" ht="90.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="90.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="63" t="s">
-        <v>436</v>
+        <v>382</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>437</v>
+        <v>383</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>438</v>
+        <v>384</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13" t="s">
-        <v>439</v>
+        <v>385</v>
       </c>
       <c r="I9" s="11"/>
       <c r="J9" s="71" t="s">
-        <v>440</v>
+        <v>386</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>420</v>
+        <v>366</v>
       </c>
       <c r="L9" s="5"/>
       <c r="M9" s="5" t="s">
@@ -11714,44 +11754,44 @@
       </c>
       <c r="N9" s="6"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>484</v>
+        <v>430</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>485</v>
+        <v>431</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>486</v>
+        <v>432</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>487</v>
+        <v>433</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="253"/>
-      <c r="C11" s="253"/>
-      <c r="D11" s="253"/>
-      <c r="E11" s="253"/>
-      <c r="F11" s="253"/>
-      <c r="G11" s="253"/>
-      <c r="H11" s="253"/>
-      <c r="I11" s="253"/>
-      <c r="J11" s="253"/>
-      <c r="K11" s="253"/>
-    </row>
-    <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="288"/>
+      <c r="C11" s="288"/>
+      <c r="D11" s="288"/>
+      <c r="E11" s="288"/>
+      <c r="F11" s="288"/>
+      <c r="G11" s="288"/>
+      <c r="H11" s="288"/>
+      <c r="I11" s="288"/>
+      <c r="J11" s="288"/>
+      <c r="K11" s="288"/>
+    </row>
+    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>23</v>
       </c>
@@ -11761,12 +11801,12 @@
       <c r="C13" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="260" t="s">
+      <c r="D13" s="295" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="261"/>
-    </row>
-    <row r="14" spans="1:14" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="296"/>
+    </row>
+    <row r="14" spans="1:14" ht="144.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
         <v>60</v>
       </c>
@@ -11774,15 +11814,15 @@
         <v>61</v>
       </c>
       <c r="C14" s="21"/>
-      <c r="D14" s="262"/>
-      <c r="E14" s="263"/>
-    </row>
-    <row r="15" spans="1:14" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="297"/>
+      <c r="E14" s="298"/>
+    </row>
+    <row r="15" spans="1:14" ht="108.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="22"/>
       <c r="B15" s="23"/>
       <c r="C15" s="24"/>
-      <c r="D15" s="264"/>
-      <c r="E15" s="265"/>
+      <c r="D15" s="299"/>
+      <c r="E15" s="300"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -11808,78 +11848,78 @@
       <selection activeCell="H3" sqref="H2:H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" customWidth="1"/>
+    <col min="1" max="1" width="20.625" customWidth="1"/>
+    <col min="2" max="2" width="25.625" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.75" customWidth="1"/>
+    <col min="5" max="5" width="19.75" customWidth="1"/>
+    <col min="6" max="6" width="19.875" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" customWidth="1"/>
-    <col min="10" max="10" width="22.7109375" customWidth="1"/>
-    <col min="11" max="11" width="23.7109375" customWidth="1"/>
+    <col min="8" max="8" width="20.75" customWidth="1"/>
+    <col min="9" max="9" width="21.875" customWidth="1"/>
+    <col min="10" max="10" width="22.75" customWidth="1"/>
+    <col min="11" max="11" width="23.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="251" t="s">
+      <c r="B1" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="252"/>
-      <c r="D1" s="252"/>
-      <c r="E1" s="252"/>
-      <c r="F1" s="252"/>
-      <c r="G1" s="252"/>
-      <c r="H1" s="252"/>
+      <c r="C1" s="287"/>
+      <c r="D1" s="287"/>
+      <c r="E1" s="287"/>
+      <c r="F1" s="287"/>
+      <c r="G1" s="287"/>
+      <c r="H1" s="287"/>
       <c r="I1" s="51"/>
       <c r="J1" s="51"/>
       <c r="K1" s="51"/>
-      <c r="L1" s="274" t="s">
+      <c r="L1" s="309" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="276" t="s">
+      <c r="M1" s="311" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="278" t="s">
+      <c r="N1" s="313" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="H2" s="37"/>
       <c r="I2" s="3"/>
       <c r="J2" s="52" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="K2" s="52"/>
-      <c r="L2" s="275"/>
-      <c r="M2" s="277"/>
-      <c r="N2" s="279"/>
-    </row>
-    <row r="3" spans="1:14" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L2" s="310"/>
+      <c r="M2" s="312"/>
+      <c r="N2" s="314"/>
+    </row>
+    <row r="3" spans="1:14" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -11896,7 +11936,7 @@
       <c r="H3" s="7"/>
       <c r="I3" s="4"/>
       <c r="J3" s="53" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="K3" s="53"/>
       <c r="L3" s="38"/>
@@ -11905,7 +11945,7 @@
       </c>
       <c r="N3" s="40"/>
     </row>
-    <row r="4" spans="1:14" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>6</v>
       </c>
@@ -11925,8 +11965,8 @@
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="225" t="s">
-        <v>337</v>
+      <c r="J4" s="224" t="s">
+        <v>327</v>
       </c>
       <c r="K4" s="53"/>
       <c r="L4" s="4" t="s">
@@ -11935,7 +11975,7 @@
       <c r="M4" s="5"/>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="1:14" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>7</v>
       </c>
@@ -11949,8 +11989,8 @@
       <c r="G5" s="4"/>
       <c r="H5" s="7"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="225" t="s">
-        <v>336</v>
+      <c r="J5" s="224" t="s">
+        <v>326</v>
       </c>
       <c r="K5" s="57"/>
       <c r="L5" s="5"/>
@@ -11959,7 +11999,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>8</v>
       </c>
@@ -11985,7 +12025,7 @@
       <c r="M6" s="5"/>
       <c r="N6" s="6"/>
     </row>
-    <row r="7" spans="1:14" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
         <v>9</v>
       </c>
@@ -12013,49 +12053,49 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="63" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="11" t="s">
-        <v>435</v>
+        <v>381</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="11"/>
       <c r="J8" s="56" t="s">
-        <v>410</v>
+        <v>356</v>
       </c>
       <c r="K8" s="56"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="6"/>
     </row>
-    <row r="9" spans="1:14" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="63" t="s">
-        <v>431</v>
+        <v>377</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>433</v>
+        <v>379</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11" t="s">
-        <v>434</v>
+        <v>380</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
@@ -12069,46 +12109,46 @@
       </c>
       <c r="N9" s="6"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>488</v>
+        <v>434</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>489</v>
+        <v>435</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>490</v>
+        <v>436</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>491</v>
+        <v>437</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>492</v>
+        <v>438</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="253"/>
-      <c r="C11" s="253"/>
-      <c r="D11" s="253"/>
-      <c r="E11" s="253"/>
-      <c r="F11" s="253"/>
-      <c r="G11" s="253"/>
-      <c r="H11" s="253"/>
-      <c r="I11" s="253"/>
-      <c r="J11" s="253"/>
-      <c r="K11" s="253"/>
-    </row>
-    <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="288"/>
+      <c r="C11" s="288"/>
+      <c r="D11" s="288"/>
+      <c r="E11" s="288"/>
+      <c r="F11" s="288"/>
+      <c r="G11" s="288"/>
+      <c r="H11" s="288"/>
+      <c r="I11" s="288"/>
+      <c r="J11" s="288"/>
+      <c r="K11" s="288"/>
+    </row>
+    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>23</v>
       </c>
@@ -12118,28 +12158,28 @@
       <c r="C13" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="260" t="s">
+      <c r="D13" s="295" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="261"/>
-    </row>
-    <row r="14" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="296"/>
+    </row>
+    <row r="14" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="21"/>
-      <c r="D14" s="262"/>
-      <c r="E14" s="263"/>
-    </row>
-    <row r="15" spans="1:14" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="297"/>
+      <c r="E14" s="298"/>
+    </row>
+    <row r="15" spans="1:14" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="22" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="23"/>
       <c r="C15" s="24"/>
-      <c r="D15" s="264"/>
-      <c r="E15" s="265"/>
+      <c r="D15" s="299"/>
+      <c r="E15" s="300"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -12164,48 +12204,48 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" customWidth="1"/>
+    <col min="1" max="1" width="20.625" customWidth="1"/>
+    <col min="2" max="2" width="25.625" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.75" customWidth="1"/>
+    <col min="5" max="5" width="19.75" customWidth="1"/>
+    <col min="6" max="6" width="19.875" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" customWidth="1"/>
-    <col min="10" max="10" width="22.7109375" customWidth="1"/>
-    <col min="11" max="11" width="23.7109375" customWidth="1"/>
+    <col min="8" max="8" width="20.75" customWidth="1"/>
+    <col min="9" max="9" width="21.875" customWidth="1"/>
+    <col min="10" max="10" width="22.75" customWidth="1"/>
+    <col min="11" max="11" width="23.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="251" t="s">
+      <c r="B1" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="252"/>
-      <c r="D1" s="252"/>
-      <c r="E1" s="252"/>
-      <c r="F1" s="252"/>
-      <c r="G1" s="252"/>
-      <c r="H1" s="252"/>
+      <c r="C1" s="287"/>
+      <c r="D1" s="287"/>
+      <c r="E1" s="287"/>
+      <c r="F1" s="287"/>
+      <c r="G1" s="287"/>
+      <c r="H1" s="287"/>
       <c r="I1" s="51"/>
       <c r="J1" s="51"/>
       <c r="K1" s="51"/>
-      <c r="L1" s="274" t="s">
+      <c r="L1" s="309" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="276" t="s">
+      <c r="M1" s="311" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="278" t="s">
+      <c r="N1" s="313" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>0</v>
       </c>
@@ -12229,11 +12269,11 @@
       <c r="K2" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="L2" s="275"/>
-      <c r="M2" s="277"/>
-      <c r="N2" s="279"/>
-    </row>
-    <row r="3" spans="1:14" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L2" s="310"/>
+      <c r="M2" s="312"/>
+      <c r="N2" s="314"/>
+    </row>
+    <row r="3" spans="1:14" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -12259,7 +12299,7 @@
       </c>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:14" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>6</v>
       </c>
@@ -12285,7 +12325,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>7</v>
       </c>
@@ -12309,7 +12349,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>8</v>
       </c>
@@ -12333,7 +12373,7 @@
       <c r="M6" s="5"/>
       <c r="N6" s="6"/>
     </row>
-    <row r="7" spans="1:14" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
         <v>9</v>
       </c>
@@ -12365,12 +12405,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="63" t="s">
-        <v>432</v>
+        <v>378</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="11" t="s">
@@ -12387,30 +12427,30 @@
       <c r="I8" s="11"/>
       <c r="J8" s="13"/>
       <c r="K8" s="13" t="s">
-        <v>430</v>
+        <v>376</v>
       </c>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="6"/>
     </row>
-    <row r="9" spans="1:14" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="63"/>
       <c r="D9" s="11" t="s">
-        <v>427</v>
+        <v>373</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11" t="s">
-        <v>428</v>
+        <v>374</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
       <c r="J9" s="13"/>
       <c r="K9" s="13" t="s">
-        <v>429</v>
+        <v>375</v>
       </c>
       <c r="L9" s="5"/>
       <c r="M9" s="5" t="s">
@@ -12418,44 +12458,44 @@
       </c>
       <c r="N9" s="6"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>471</v>
+        <v>417</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>493</v>
+        <v>439</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
         <v>269</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>473</v>
+        <v>419</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="253"/>
-      <c r="C11" s="253"/>
-      <c r="D11" s="253"/>
-      <c r="E11" s="253"/>
-      <c r="F11" s="253"/>
-      <c r="G11" s="253"/>
-      <c r="H11" s="253"/>
-      <c r="I11" s="253"/>
-      <c r="J11" s="253"/>
-      <c r="K11" s="253"/>
-    </row>
-    <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="288"/>
+      <c r="C11" s="288"/>
+      <c r="D11" s="288"/>
+      <c r="E11" s="288"/>
+      <c r="F11" s="288"/>
+      <c r="G11" s="288"/>
+      <c r="H11" s="288"/>
+      <c r="I11" s="288"/>
+      <c r="J11" s="288"/>
+      <c r="K11" s="288"/>
+    </row>
+    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>23</v>
       </c>
@@ -12465,12 +12505,12 @@
       <c r="C13" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="260" t="s">
+      <c r="D13" s="295" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="261"/>
-    </row>
-    <row r="14" spans="1:14" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="296"/>
+    </row>
+    <row r="14" spans="1:14" ht="125.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
         <v>58</v>
       </c>
@@ -12480,8 +12520,8 @@
       <c r="C14" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="262"/>
-      <c r="E14" s="263"/>
+      <c r="D14" s="297"/>
+      <c r="E14" s="298"/>
     </row>
   </sheetData>
   <mergeCells count="7">
